--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -72,7 +72,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,13 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -102,16 +161,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,37 +208,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -171,56 +216,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -243,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,40 +456,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,151 +540,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,54 +710,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1905,24 +1905,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D66" sqref="D66:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4615384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4583333333333" style="1" customWidth="1"/>
     <col min="5" max="16349" width="19.25" style="1" customWidth="1"/>
     <col min="16350" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:4">
+    <row r="1" ht="13.5" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="16.8" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2461,6 +2461,46 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
+      <c r="C67" s="6">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
+      <c r="C68" s="1">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
+      <c r="C69" s="6">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
+      <c r="C70" s="1">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
+      <c r="C71" s="6">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
         <v>1</v>
       </c>
     </row>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -31,10 +31,16 @@
     <t>costId</t>
   </si>
   <si>
+    <t>promoteLimit</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>强化消耗id</t>
+  </si>
+  <si>
+    <t>突破等级限制</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -51,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -72,73 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +92,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -161,33 +108,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +138,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -216,11 +177,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -243,19 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,163 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,22 +462,40 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,26 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,160 +555,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,54 +716,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1905,40 +1911,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66:D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4583333333333" style="1" customWidth="1"/>
-    <col min="5" max="16349" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4615384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="16349" width="19.25" style="1" customWidth="1"/>
     <col min="16350" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:4">
+    <row r="1" ht="16.8" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:4">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="16.8" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1949,40 +1958,50 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -1991,516 +2010,656 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:4">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:5">
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:5">
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:4">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:5">
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="6">
         <v>9</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="6">
         <v>11</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="6">
         <v>13</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="6">
         <v>15</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>16</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="6">
         <v>17</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="1">
         <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="6">
         <v>19</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="6">
         <v>21</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="1">
         <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="6">
         <v>23</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="1">
         <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="6">
         <v>25</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>26</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="6">
         <v>27</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="6">
         <v>29</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>30</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="6">
         <v>31</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="6">
         <v>33</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>34</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="6">
         <v>35</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="6">
         <v>37</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="6">
         <v>39</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>40</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="6">
         <v>41</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="1">
         <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="6">
         <v>43</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="1">
         <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="6">
         <v>45</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="6">
         <v>47</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="1">
         <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="6">
         <v>49</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="1">
         <v>50</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="6">
         <v>51</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>52</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="6">
         <v>53</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>54</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="6">
         <v>55</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="1">
         <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="6">
         <v>57</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="1">
         <v>58</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="6">
         <v>59</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>60</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
-      <c r="C67" s="6">
-        <v>61</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
-      <c r="C68" s="1">
-        <v>62</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
-      <c r="C69" s="6">
-        <v>63</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
-      <c r="C70" s="1">
-        <v>64</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
-      <c r="C71" s="6">
-        <v>65</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="E66" s="1">
         <v>1</v>
       </c>
     </row>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>装备等级</t>
+  </si>
+  <si>
+    <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -37,7 +40,22 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>强化消耗id</t>
+    <t>白装升级消耗id</t>
+  </si>
+  <si>
+    <t>绿装升级消耗id</t>
+  </si>
+  <si>
+    <t>蓝装升级消耗id</t>
+  </si>
+  <si>
+    <t>紫装升级消耗id</t>
+  </si>
+  <si>
+    <t>橙装升级消耗id</t>
+  </si>
+  <si>
+    <t>不同品质消耗id</t>
   </si>
   <si>
     <t>突破等级限制</t>
@@ -51,6 +69,9 @@
   <si>
     <t>int32</t>
   </si>
+  <si>
+    <t>[]int32</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +83,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -73,6 +94,11 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -228,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,161 +590,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1913,23 +1948,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4615384615385" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16349" width="19.25" style="1" customWidth="1"/>
-    <col min="16350" max="16384" width="19.25" style="1"/>
+    <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="16354" width="19.25" style="1" customWidth="1"/>
+    <col min="16355" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:5">
+    <row r="1" ht="16.8" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1937,729 +1973,1731 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="16.8" spans="1:5">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="58" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:5">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:5">
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:5">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:5">
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:5">
-      <c r="C9" s="6">
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:5">
+    <row r="10" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:5">
-      <c r="C11" s="6">
+    <row r="11" customHeight="1" spans="3:10">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:5">
+    <row r="12" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:5">
-      <c r="C13" s="6">
+    <row r="13" customHeight="1" spans="3:10">
+      <c r="C13" s="5">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" ref="I13:I44" si="0">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:5">
+    <row r="14" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:5">
-      <c r="C15" s="6">
+    <row r="15" customHeight="1" spans="3:10">
+      <c r="C15" s="5">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:5">
+    <row r="16" customHeight="1" spans="3:10">
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:5">
-      <c r="C17" s="6">
+    <row r="17" customHeight="1" spans="3:10">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:5">
+    <row r="18" customHeight="1" spans="3:10">
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:5">
-      <c r="C19" s="6">
+    <row r="19" customHeight="1" spans="3:10">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:5">
+    <row r="20" customHeight="1" spans="3:10">
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:5">
-      <c r="C21" s="6">
+    <row r="21" customHeight="1" spans="3:10">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:5">
+    <row r="22" customHeight="1" spans="3:10">
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:5">
-      <c r="C23" s="6">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:10">
+      <c r="C23" s="5">
         <v>17</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:5">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:10">
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:5">
-      <c r="C25" s="6">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:5">
-      <c r="C27" s="6">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:10">
+      <c r="C27" s="5">
         <v>21</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:5">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:10">
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:5">
-      <c r="C29" s="6">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:10">
+      <c r="C29" s="5">
         <v>23</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:5">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:10">
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:5">
-      <c r="C31" s="6">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="5">
         <v>25</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:5">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:5">
-      <c r="C33" s="6">
+    <row r="33" customHeight="1" spans="3:10">
+      <c r="C33" s="5">
         <v>27</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:5">
+    <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:5">
-      <c r="C35" s="6">
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="5">
         <v>29</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J35" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:5">
+    <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:5">
-      <c r="C37" s="6">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="5">
         <v>31</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:5">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:5">
-      <c r="C39" s="6">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
+      <c r="C39" s="5">
         <v>33</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:5">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:5">
-      <c r="C41" s="6">
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="5">
         <v>35</v>
       </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:5">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:5">
-      <c r="C43" s="6">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
+      <c r="C43" s="5">
         <v>37</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:5">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:5">
-      <c r="C45" s="6">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
+      <c r="C45" s="5">
         <v>39</v>
       </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:5">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" ref="I45:I66" si="1">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:5">
-      <c r="C47" s="6">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
+      <c r="C47" s="5">
         <v>41</v>
       </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:5">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:5">
-      <c r="C49" s="6">
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
+      <c r="C49" s="5">
         <v>43</v>
       </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:5">
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:5">
-      <c r="C51" s="6">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
+      <c r="C51" s="5">
         <v>45</v>
       </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:5">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:5">
-      <c r="C53" s="6">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="5">
         <v>47</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:5">
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:10">
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:5">
-      <c r="C55" s="6">
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:10">
+      <c r="C55" s="5">
         <v>49</v>
       </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:5">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:10">
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:5">
-      <c r="C57" s="6">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="5">
         <v>51</v>
       </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:5">
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:5">
-      <c r="C59" s="6">
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="5">
         <v>53</v>
       </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:5">
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:5">
-      <c r="C61" s="6">
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="5">
         <v>55</v>
       </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:5">
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:5">
-      <c r="C63" s="6">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="5">
         <v>57</v>
       </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:5">
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:5">
-      <c r="C65" s="6">
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="5">
         <v>59</v>
       </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:5">
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J66" s="1">
         <v>1</v>
       </c>
     </row>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>此列由前5列自动生成，不用填写</t>
+  </si>
+  <si>
+    <t>关联GlobalConfig表EquipPromoteLevelLimit对应账号等级限制</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -58,7 +61,7 @@
     <t>不同品质消耗id</t>
   </si>
   <si>
-    <t>突破等级限制</t>
+    <t>突破次数限制</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,30 +109,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,15 +137,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,38 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -209,6 +180,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,16 +219,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,21 +254,6 @@
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,7 +284,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,73 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,19 +440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,11 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +513,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,32 +562,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,148 +593,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,65 +743,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1946,26 +1949,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.2333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.925" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="1" customWidth="1"/>
     <col min="11" max="16354" width="19.25" style="1" customWidth="1"/>
     <col min="16355" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:10">
+    <row r="1" ht="13.5" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1982,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="58" spans="1:10">
+    <row r="2" ht="49.5" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1988,123 +1991,125 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" ref="I7:I12" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2112,13 +2117,13 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -2127,8 +2132,8 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="str">
-        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J8" s="1">
@@ -2136,29 +2141,29 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2166,13 +2171,13 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -2181,8 +2186,8 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="str">
-        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10</f>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J10" s="1">
@@ -2190,29 +2195,29 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:10">
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f>D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2220,13 +2225,13 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -2235,8 +2240,8 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="str">
-        <f>D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12</f>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J12" s="1">
@@ -2244,29 +2249,29 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:10">
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" ref="I13:I44" si="0">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" ref="I13:I44" si="1">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2274,13 +2279,13 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -2289,8 +2294,8 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J14" s="1">
@@ -2298,29 +2303,29 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2328,13 +2333,13 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -2343,8 +2348,8 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J16" s="1">
@@ -2352,29 +2357,29 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:10">
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2382,13 +2387,13 @@
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -2397,8 +2402,8 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J18" s="1">
@@ -2406,29 +2411,29 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:10">
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2436,13 +2441,13 @@
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -2451,8 +2456,8 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J20" s="1">
@@ -2460,29 +2465,29 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:10">
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2490,13 +2495,13 @@
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -2505,8 +2510,8 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J22" s="1">
@@ -2514,29 +2519,29 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:10">
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2544,13 +2549,13 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -2559,8 +2564,8 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J24" s="1">
@@ -2568,29 +2573,29 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:10">
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2598,13 +2603,13 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -2613,8 +2618,8 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J26" s="1">
@@ -2622,29 +2627,29 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:10">
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>21</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2652,13 +2657,13 @@
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -2667,8 +2672,8 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J28" s="1">
@@ -2676,29 +2681,29 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:10">
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>23</v>
       </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2706,13 +2711,13 @@
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -2721,8 +2726,8 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J30" s="1">
@@ -2730,29 +2735,29 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2760,13 +2765,13 @@
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -2775,8 +2780,8 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I32" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J32" s="1">
@@ -2784,29 +2789,29 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:10">
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>27</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J33" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2814,13 +2819,13 @@
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -2829,8 +2834,8 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J34" s="1">
@@ -2838,29 +2843,29 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:10">
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>29</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2868,13 +2873,13 @@
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -2883,52 +2888,52 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:10">
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>31</v>
       </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -2937,52 +2942,52 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I38" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:10">
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>33</v>
       </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
         <v>1</v>
       </c>
       <c r="G40" s="1">
@@ -2991,52 +2996,52 @@
       <c r="H40" s="1">
         <v>1</v>
       </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I40" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:10">
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>35</v>
       </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J41" s="5">
-        <v>1</v>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:10">
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -3045,52 +3050,52 @@
       <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>37</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J43" s="5">
-        <v>1</v>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:10">
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="G44" s="1">
@@ -3099,52 +3104,52 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:10">
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>39</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" ref="I45:I66" si="1">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1</v>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" ref="I45:I66" si="2">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:10">
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="1">
@@ -3153,52 +3158,52 @@
       <c r="H46" s="1">
         <v>1</v>
       </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:10">
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>41</v>
       </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J47" s="5">
-        <v>1</v>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:10">
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
         <v>1</v>
       </c>
       <c r="G48" s="1">
@@ -3207,52 +3212,52 @@
       <c r="H48" s="1">
         <v>1</v>
       </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:10">
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>43</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J49" s="5">
-        <v>1</v>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
         <v>1</v>
       </c>
       <c r="G50" s="1">
@@ -3261,52 +3266,52 @@
       <c r="H50" s="1">
         <v>1</v>
       </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:10">
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <v>45</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1</v>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
         <v>1</v>
       </c>
       <c r="G52" s="1">
@@ -3315,52 +3320,52 @@
       <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:10">
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>47</v>
       </c>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J53" s="5">
-        <v>1</v>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:10">
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
         <v>1</v>
       </c>
       <c r="G54" s="1">
@@ -3369,52 +3374,52 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:10">
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <v>49</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J55" s="5">
-        <v>1</v>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:10">
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
         <v>1</v>
       </c>
       <c r="G56" s="1">
@@ -3423,52 +3428,52 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:10">
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>51</v>
       </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1</v>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:10">
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
         <v>1</v>
       </c>
       <c r="G58" s="1">
@@ -3477,52 +3482,52 @@
       <c r="H58" s="1">
         <v>1</v>
       </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:10">
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>53</v>
       </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>1</v>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:10">
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
         <v>1</v>
       </c>
       <c r="G60" s="1">
@@ -3531,52 +3536,52 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:10">
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>55</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1</v>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:10">
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
         <v>1</v>
       </c>
       <c r="G62" s="1">
@@ -3585,52 +3590,52 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:10">
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>57</v>
       </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1</v>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:10">
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
         <v>1</v>
       </c>
       <c r="G64" s="1">
@@ -3639,52 +3644,52 @@
       <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:10">
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <v>59</v>
       </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J65" s="5">
-        <v>1</v>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:10">
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
         <v>1</v>
       </c>
       <c r="G66" s="1">
@@ -3693,12 +3698,147 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="6">
+        <v>61</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f>D67&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
+      <c r="C68" s="1">
+        <v>62</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f>D68&amp;","&amp;E68&amp;","&amp;F68&amp;","&amp;G68&amp;","&amp;H68</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="6">
+        <v>63</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f>D69&amp;","&amp;E69&amp;","&amp;F69&amp;","&amp;G69&amp;","&amp;H69</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="1">
+        <v>64</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f>D70&amp;","&amp;E70&amp;","&amp;F70&amp;","&amp;G70&amp;","&amp;H70</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="6">
+        <v>65</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f>D71&amp;","&amp;E71&amp;","&amp;F71&amp;","&amp;G71&amp;","&amp;H71</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -104,6 +104,20 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -129,30 +143,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,53 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -227,6 +198,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -235,11 +213,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,6 +244,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +284,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,151 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -504,60 +513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -590,151 +560,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,65 +743,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1949,26 +1949,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.2333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.925" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.375" style="1" customWidth="1"/>
     <col min="11" max="16354" width="19.25" style="1" customWidth="1"/>
     <col min="16355" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:10">
+    <row r="1" ht="16.8" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="49.5" spans="1:10">
+    <row r="2" ht="58" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1991,12 +1991,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2005,18 +2005,18 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2025,28 +2025,28 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2055,61 +2055,61 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="str">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="str">
         <f t="shared" ref="I7:I12" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2117,13 +2117,13 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -2132,7 +2132,7 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2141,29 +2141,29 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="str">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2171,13 +2171,13 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -2186,7 +2186,7 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2195,29 +2195,29 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:10">
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="str">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2225,13 +2225,13 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -2240,7 +2240,7 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2249,29 +2249,29 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:10">
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="str">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="str">
         <f t="shared" ref="I13:I44" si="1">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2279,13 +2279,13 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -2294,7 +2294,7 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2303,29 +2303,29 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="str">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2333,13 +2333,13 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -2348,7 +2348,7 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2357,29 +2357,29 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:10">
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="str">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2387,13 +2387,13 @@
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -2402,7 +2402,7 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2411,29 +2411,29 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:10">
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="str">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2441,13 +2441,13 @@
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -2456,7 +2456,7 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2465,29 +2465,29 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:10">
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="str">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2495,13 +2495,13 @@
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -2510,7 +2510,7 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2519,25 +2519,25 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:10">
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>17</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="str">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2549,13 +2549,13 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -2564,7 +2564,7 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2573,25 +2573,25 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:10">
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6" t="str">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2603,13 +2603,13 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -2618,7 +2618,7 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2627,25 +2627,25 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:10">
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>21</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="str">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2657,13 +2657,13 @@
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -2672,7 +2672,7 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2681,25 +2681,25 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:10">
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>23</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6" t="str">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2711,13 +2711,13 @@
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -2726,7 +2726,7 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2735,25 +2735,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>25</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="str">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2765,13 +2765,13 @@
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -2780,7 +2780,7 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2789,25 +2789,25 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:10">
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>27</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6" t="str">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2819,13 +2819,13 @@
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -2834,7 +2834,7 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2843,25 +2843,25 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:10">
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>29</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6" t="str">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2873,13 +2873,13 @@
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -2888,7 +2888,7 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2897,25 +2897,25 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:10">
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>31</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6" t="str">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2927,13 +2927,13 @@
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -2942,7 +2942,7 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2951,25 +2951,25 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:10">
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>33</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6" t="str">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -2981,13 +2981,13 @@
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>1</v>
       </c>
       <c r="G40" s="1">
@@ -2996,7 +2996,7 @@
       <c r="H40" s="1">
         <v>1</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3005,25 +3005,25 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:10">
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>35</v>
       </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6" t="str">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3035,13 +3035,13 @@
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -3050,7 +3050,7 @@
       <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3059,25 +3059,25 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>37</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6" t="str">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3089,13 +3089,13 @@
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="1">
@@ -3104,7 +3104,7 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3113,26 +3113,26 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:10">
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>39</v>
       </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" ref="I45:I66" si="2">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" ref="I45:I71" si="2">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J45" s="1">
@@ -3143,13 +3143,13 @@
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
         <v>1</v>
       </c>
       <c r="G46" s="1">
@@ -3158,7 +3158,7 @@
       <c r="H46" s="1">
         <v>1</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3167,25 +3167,25 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:10">
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>41</v>
       </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="str">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3197,13 +3197,13 @@
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
         <v>1</v>
       </c>
       <c r="G48" s="1">
@@ -3212,7 +3212,7 @@
       <c r="H48" s="1">
         <v>1</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3221,25 +3221,25 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:10">
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43</v>
       </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6" t="str">
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3251,13 +3251,13 @@
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="1">
@@ -3266,7 +3266,7 @@
       <c r="H50" s="1">
         <v>1</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3275,25 +3275,25 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:10">
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>45</v>
       </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>1</v>
-      </c>
-      <c r="I51" s="6" t="str">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3305,13 +3305,13 @@
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
         <v>1</v>
       </c>
       <c r="G52" s="1">
@@ -3320,7 +3320,7 @@
       <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3329,25 +3329,25 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:10">
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>47</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6" t="str">
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3359,13 +3359,13 @@
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>1</v>
       </c>
       <c r="G54" s="1">
@@ -3374,7 +3374,7 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3383,25 +3383,25 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:10">
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>49</v>
       </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6">
-        <v>1</v>
-      </c>
-      <c r="I55" s="6" t="str">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3413,13 +3413,13 @@
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="1">
@@ -3428,7 +3428,7 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3437,25 +3437,25 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:10">
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>51</v>
       </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="I57" s="6" t="str">
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3467,13 +3467,13 @@
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
         <v>1</v>
       </c>
       <c r="G58" s="1">
@@ -3482,7 +3482,7 @@
       <c r="H58" s="1">
         <v>1</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3491,25 +3491,25 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:10">
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>53</v>
       </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6" t="str">
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3521,13 +3521,13 @@
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="1">
@@ -3536,7 +3536,7 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3545,25 +3545,25 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:10">
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>55</v>
       </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6">
-        <v>1</v>
-      </c>
-      <c r="I61" s="6" t="str">
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3575,13 +3575,13 @@
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="1">
@@ -3590,7 +3590,7 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3599,25 +3599,25 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:10">
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>57</v>
       </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="str">
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
         <v>1</v>
       </c>
       <c r="G64" s="1">
@@ -3644,7 +3644,7 @@
       <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3653,25 +3653,25 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:10">
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>59</v>
       </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6">
-        <v>1</v>
-      </c>
-      <c r="I65" s="6" t="str">
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3683,13 +3683,13 @@
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6">
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
         <v>1</v>
       </c>
       <c r="G66" s="1">
@@ -3698,7 +3698,7 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
@@ -3707,16 +3707,16 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:10">
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>61</v>
       </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
         <v>1</v>
       </c>
       <c r="G67" s="1">
@@ -3725,8 +3725,8 @@
       <c r="H67" s="1">
         <v>1</v>
       </c>
-      <c r="I67" s="6" t="str">
-        <f>D67&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67</f>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J67" s="1">
@@ -3737,13 +3737,13 @@
       <c r="C68" s="1">
         <v>62</v>
       </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="1">
@@ -3752,8 +3752,8 @@
       <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="6" t="str">
-        <f>D68&amp;","&amp;E68&amp;","&amp;F68&amp;","&amp;G68&amp;","&amp;H68</f>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J68" s="1">
@@ -3761,16 +3761,16 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:10">
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>63</v>
       </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6">
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="1">
@@ -3779,8 +3779,8 @@
       <c r="H69" s="1">
         <v>1</v>
       </c>
-      <c r="I69" s="6" t="str">
-        <f>D69&amp;","&amp;E69&amp;","&amp;F69&amp;","&amp;G69&amp;","&amp;H69</f>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J69" s="1">
@@ -3791,13 +3791,13 @@
       <c r="C70" s="1">
         <v>64</v>
       </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
-      <c r="F70" s="6">
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
         <v>1</v>
       </c>
       <c r="G70" s="1">
@@ -3806,8 +3806,8 @@
       <c r="H70" s="1">
         <v>1</v>
       </c>
-      <c r="I70" s="6" t="str">
-        <f>D70&amp;","&amp;E70&amp;","&amp;F70&amp;","&amp;G70&amp;","&amp;H70</f>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J70" s="1">
@@ -3815,16 +3815,16 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:10">
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>65</v>
       </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
         <v>1</v>
       </c>
       <c r="G71" s="1">
@@ -3833,8 +3833,8 @@
       <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="6" t="str">
-        <f>D71&amp;","&amp;E71&amp;","&amp;F71&amp;","&amp;G71&amp;","&amp;H71</f>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J71" s="1">

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>此列由前5列自动生成，不用填写</t>
+  </si>
+  <si>
+    <t>升到此等级所需经验值</t>
   </si>
   <si>
     <t>关联GlobalConfig表EquipPromoteLevelLimit对应账号等级限制</t>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>costId</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>promoteLimit</t>
@@ -61,6 +67,24 @@
     <t>不同品质消耗id</t>
   </si>
   <si>
+    <t>白装升级经验</t>
+  </si>
+  <si>
+    <t>绿装升级经验</t>
+  </si>
+  <si>
+    <t>蓝装升级经验</t>
+  </si>
+  <si>
+    <t>紫装升级经验</t>
+  </si>
+  <si>
+    <t>橙装升级经验</t>
+  </si>
+  <si>
+    <t>不同品质升级所需经验值</t>
+  </si>
+  <si>
     <t>突破次数限制</t>
   </si>
   <si>
@@ -81,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -120,13 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,8 +152,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -151,22 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -176,7 +191,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +223,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,16 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,16 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,13 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,43 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,37 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,16 +545,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +597,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,178 +614,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1951,10 +1975,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -1963,12 +1987,15 @@
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
     <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.375" style="1" customWidth="1"/>
-    <col min="11" max="16354" width="19.25" style="1" customWidth="1"/>
-    <col min="16355" max="16384" width="19.25" style="1"/>
+    <col min="10" max="10" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="11" max="14" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.375" style="1" customWidth="1"/>
+    <col min="17" max="16360" width="19.25" style="1" customWidth="1"/>
+    <col min="16361" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:10">
+    <row r="1" ht="16.8" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1981,8 +2008,14 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="58" spans="1:10">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" ht="58" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1996,17 +2029,27 @@
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:10">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2014,46 +2057,72 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:10">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2063,14 +2132,20 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:10">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2078,13 +2153,21 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -2110,10 +2193,29 @@
         <v>1,1,1,1,1</v>
       </c>
       <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="str">
+        <f t="shared" ref="O7:O70" si="1">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:10">
+    <row r="8" customHeight="1" spans="3:16">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -2136,11 +2238,30 @@
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:10">
+    <row r="9" customHeight="1" spans="3:16">
       <c r="C9" s="5">
         <v>3</v>
       </c>
@@ -2164,10 +2285,29 @@
         <v>1,1,1,1,1</v>
       </c>
       <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,2,1,1,1</v>
+      </c>
+      <c r="P9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:10">
+    <row r="10" customHeight="1" spans="3:16">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -2190,11 +2330,30 @@
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:10">
+    <row r="11" customHeight="1" spans="3:16">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -2218,10 +2377,29 @@
         <v>1,1,1,1,1</v>
       </c>
       <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:10">
+    <row r="12" customHeight="1" spans="3:16">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -2244,11 +2422,30 @@
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:10">
+    <row r="13" customHeight="1" spans="3:16">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -2268,14 +2465,33 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" ref="I13:I44" si="1">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
+        <f t="shared" ref="I13:I44" si="2">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:10">
+    <row r="14" customHeight="1" spans="3:16">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -2295,14 +2511,33 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:10">
+    <row r="15" customHeight="1" spans="3:16">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -2322,14 +2557,33 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:10">
+    <row r="16" customHeight="1" spans="3:16">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -2349,14 +2603,33 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:10">
+    <row r="17" customHeight="1" spans="3:16">
       <c r="C17" s="5">
         <v>11</v>
       </c>
@@ -2376,14 +2649,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:10">
+    <row r="18" customHeight="1" spans="3:16">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -2403,14 +2695,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:10">
+    <row r="19" customHeight="1" spans="3:16">
       <c r="C19" s="5">
         <v>13</v>
       </c>
@@ -2430,14 +2741,33 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:10">
+    <row r="20" customHeight="1" spans="3:16">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -2457,14 +2787,33 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:10">
+    <row r="21" customHeight="1" spans="3:16">
       <c r="C21" s="5">
         <v>15</v>
       </c>
@@ -2484,14 +2833,33 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
       <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:10">
+    <row r="22" customHeight="1" spans="3:16">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -2511,14 +2879,33 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:16">
       <c r="C23" s="5">
         <v>17</v>
       </c>
@@ -2538,14 +2925,33 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:16">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -2565,14 +2971,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:16">
       <c r="C25" s="5">
         <v>19</v>
       </c>
@@ -2592,14 +3017,33 @@
         <v>1</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:16">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -2619,14 +3063,33 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:16">
       <c r="C27" s="5">
         <v>21</v>
       </c>
@@ -2646,14 +3109,33 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:16">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -2673,14 +3155,33 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:16">
       <c r="C29" s="5">
         <v>23</v>
       </c>
@@ -2700,14 +3201,33 @@
         <v>1</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:16">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2727,14 +3247,33 @@
         <v>1</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:16">
       <c r="C31" s="5">
         <v>25</v>
       </c>
@@ -2754,14 +3293,33 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:16">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2781,14 +3339,33 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:10">
+    <row r="33" customHeight="1" spans="3:16">
       <c r="C33" s="5">
         <v>27</v>
       </c>
@@ -2808,14 +3385,33 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:10">
+    <row r="34" customHeight="1" spans="3:16">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2835,14 +3431,33 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:10">
+    <row r="35" customHeight="1" spans="3:16">
       <c r="C35" s="5">
         <v>29</v>
       </c>
@@ -2862,14 +3477,33 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P35" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:10">
+    <row r="36" customHeight="1" spans="3:16">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2889,14 +3523,33 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:10">
+    <row r="37" customHeight="1" spans="3:16">
       <c r="C37" s="5">
         <v>31</v>
       </c>
@@ -2916,14 +3569,33 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P37" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:10">
+    <row r="38" customHeight="1" spans="3:16">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2943,14 +3615,33 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J38" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:10">
+    <row r="39" customHeight="1" spans="3:16">
       <c r="C39" s="5">
         <v>33</v>
       </c>
@@ -2970,14 +3661,33 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P39" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:10">
+    <row r="40" customHeight="1" spans="3:16">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2997,14 +3707,33 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P40" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:10">
+    <row r="41" customHeight="1" spans="3:16">
       <c r="C41" s="5">
         <v>35</v>
       </c>
@@ -3024,14 +3753,33 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J41" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:10">
+    <row r="42" customHeight="1" spans="3:16">
       <c r="C42" s="1">
         <v>36</v>
       </c>
@@ -3051,14 +3799,33 @@
         <v>1</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:10">
+    <row r="43" customHeight="1" spans="3:16">
       <c r="C43" s="5">
         <v>37</v>
       </c>
@@ -3078,14 +3845,33 @@
         <v>1</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J43" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:10">
+    <row r="44" customHeight="1" spans="3:16">
       <c r="C44" s="1">
         <v>38</v>
       </c>
@@ -3105,14 +3891,33 @@
         <v>1</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J44" s="1">
+        <f t="shared" si="2"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P44" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="3:10">
+    <row r="45" customHeight="1" spans="3:16">
       <c r="C45" s="5">
         <v>39</v>
       </c>
@@ -3132,14 +3937,33 @@
         <v>1</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f t="shared" ref="I45:I71" si="2">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J45" s="1">
+        <f t="shared" ref="I45:I71" si="3">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P45" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="3:10">
+    <row r="46" customHeight="1" spans="3:16">
       <c r="C46" s="1">
         <v>40</v>
       </c>
@@ -3159,14 +3983,33 @@
         <v>1</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J46" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="3:10">
+    <row r="47" customHeight="1" spans="3:16">
       <c r="C47" s="5">
         <v>41</v>
       </c>
@@ -3186,14 +4029,33 @@
         <v>1</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J47" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:10">
+    <row r="48" customHeight="1" spans="3:16">
       <c r="C48" s="1">
         <v>42</v>
       </c>
@@ -3213,14 +4075,33 @@
         <v>1</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J48" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="3:10">
+    <row r="49" customHeight="1" spans="3:16">
       <c r="C49" s="5">
         <v>43</v>
       </c>
@@ -3240,14 +4121,33 @@
         <v>1</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J49" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:10">
+    <row r="50" customHeight="1" spans="3:16">
       <c r="C50" s="1">
         <v>44</v>
       </c>
@@ -3267,14 +4167,33 @@
         <v>1</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J50" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:10">
+    <row r="51" customHeight="1" spans="3:16">
       <c r="C51" s="5">
         <v>45</v>
       </c>
@@ -3294,14 +4213,33 @@
         <v>1</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J51" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="3:10">
+    <row r="52" customHeight="1" spans="3:16">
       <c r="C52" s="1">
         <v>46</v>
       </c>
@@ -3321,14 +4259,33 @@
         <v>1</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J52" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P52" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="3:10">
+    <row r="53" customHeight="1" spans="3:16">
       <c r="C53" s="5">
         <v>47</v>
       </c>
@@ -3348,14 +4305,33 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J53" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="3:10">
+    <row r="54" customHeight="1" spans="3:16">
       <c r="C54" s="1">
         <v>48</v>
       </c>
@@ -3375,14 +4351,33 @@
         <v>1</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J54" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="3:10">
+    <row r="55" customHeight="1" spans="3:16">
       <c r="C55" s="5">
         <v>49</v>
       </c>
@@ -3402,14 +4397,33 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J55" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P55" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="3:10">
+    <row r="56" customHeight="1" spans="3:16">
       <c r="C56" s="1">
         <v>50</v>
       </c>
@@ -3429,14 +4443,33 @@
         <v>1</v>
       </c>
       <c r="I56" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J56" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P56" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="3:10">
+    <row r="57" customHeight="1" spans="3:16">
       <c r="C57" s="5">
         <v>51</v>
       </c>
@@ -3456,14 +4489,33 @@
         <v>1</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J57" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P57" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="3:10">
+    <row r="58" customHeight="1" spans="3:16">
       <c r="C58" s="1">
         <v>52</v>
       </c>
@@ -3483,14 +4535,33 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J58" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P58" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:10">
+    <row r="59" customHeight="1" spans="3:16">
       <c r="C59" s="5">
         <v>53</v>
       </c>
@@ -3510,14 +4581,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J59" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P59" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="3:10">
+    <row r="60" customHeight="1" spans="3:16">
       <c r="C60" s="1">
         <v>54</v>
       </c>
@@ -3537,14 +4627,33 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J60" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="3:10">
+    <row r="61" customHeight="1" spans="3:16">
       <c r="C61" s="5">
         <v>55</v>
       </c>
@@ -3564,14 +4673,33 @@
         <v>1</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J61" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1</v>
+      </c>
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="3:10">
+    <row r="62" customHeight="1" spans="3:16">
       <c r="C62" s="1">
         <v>56</v>
       </c>
@@ -3591,14 +4719,33 @@
         <v>1</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J62" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>1</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="3:10">
+    <row r="63" customHeight="1" spans="3:16">
       <c r="C63" s="5">
         <v>57</v>
       </c>
@@ -3618,14 +4765,33 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J63" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:10">
+    <row r="64" customHeight="1" spans="3:16">
       <c r="C64" s="1">
         <v>58</v>
       </c>
@@ -3645,14 +4811,33 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J64" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1</v>
+      </c>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P64" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="3:10">
+    <row r="65" customHeight="1" spans="3:16">
       <c r="C65" s="5">
         <v>59</v>
       </c>
@@ -3672,14 +4857,33 @@
         <v>1</v>
       </c>
       <c r="I65" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J65" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5">
+        <v>1</v>
+      </c>
+      <c r="M65" s="5">
+        <v>1</v>
+      </c>
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P65" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="3:10">
+    <row r="66" customHeight="1" spans="3:16">
       <c r="C66" s="1">
         <v>60</v>
       </c>
@@ -3699,14 +4903,33 @@
         <v>1</v>
       </c>
       <c r="I66" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J66" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P66" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="3:10">
+    <row r="67" customHeight="1" spans="3:16">
       <c r="C67" s="5">
         <v>61</v>
       </c>
@@ -3726,14 +4949,33 @@
         <v>1</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J67" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5">
+        <v>1</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P67" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="3:10">
+    <row r="68" customHeight="1" spans="3:16">
       <c r="C68" s="1">
         <v>62</v>
       </c>
@@ -3753,14 +4995,33 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J68" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P68" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="3:10">
+    <row r="69" customHeight="1" spans="3:16">
       <c r="C69" s="5">
         <v>63</v>
       </c>
@@ -3780,14 +5041,33 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J69" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P69" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="3:10">
+    <row r="70" customHeight="1" spans="3:16">
       <c r="C70" s="1">
         <v>64</v>
       </c>
@@ -3807,14 +5087,33 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J70" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P70" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="3:10">
+    <row r="71" customHeight="1" spans="3:16">
       <c r="C71" s="5">
         <v>65</v>
       </c>
@@ -3834,10 +5133,29 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="J71" s="1">
+        <f t="shared" si="3"/>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5">
+        <v>1</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="5" t="str">
+        <f>J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;","&amp;N71</f>
+        <v>1,1,1,1,1</v>
+      </c>
+      <c r="P71" s="1">
         <v>5</v>
       </c>
     </row>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,9 +131,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,17 +175,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,7 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +244,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -205,77 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +308,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,169 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,8 +520,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +570,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,36 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -603,162 +614,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,65 +767,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1973,29 +1973,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8461538461538" style="1" customWidth="1"/>
-    <col min="11" max="14" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5384615384615" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.2333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.925" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85" style="1" customWidth="1"/>
+    <col min="11" max="14" width="12.925" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5416666666667" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.375" style="1" customWidth="1"/>
     <col min="17" max="16360" width="19.25" style="1" customWidth="1"/>
     <col min="16361" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:16">
+    <row r="1" ht="13.5" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="58" spans="1:16">
+    <row r="2" ht="49.5" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2024,8 +2024,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2034,12 +2034,12 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2048,26 +2048,26 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2076,46 +2076,46 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2124,94 +2124,94 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="str">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="str">
         <f t="shared" ref="I7:I12" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="str">
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="str">
         <f t="shared" ref="O7:O70" si="1">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P7" s="5">
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="P7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2219,13 +2219,13 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -2234,76 +2234,76 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
+      <c r="J8" s="6">
+        <v>75</v>
+      </c>
+      <c r="K8" s="6">
+        <v>101</v>
+      </c>
+      <c r="L8" s="6">
+        <v>126</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>202</v>
+      </c>
+      <c r="O8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>75,101,126,151,202</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:16">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="str">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,2,1,1,1</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="J9" s="6">
+        <v>81</v>
+      </c>
+      <c r="K9" s="6">
+        <v>108</v>
+      </c>
+      <c r="L9" s="6">
+        <v>135</v>
+      </c>
+      <c r="M9" s="6">
+        <v>162</v>
+      </c>
+      <c r="N9" s="6">
+        <v>216</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>81,108,135,162,216</v>
+      </c>
+      <c r="P9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2311,13 +2311,13 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -2326,76 +2326,76 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
+      <c r="J10" s="6">
+        <v>95</v>
+      </c>
+      <c r="K10" s="6">
+        <v>127</v>
+      </c>
+      <c r="L10" s="6">
+        <v>158</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>254</v>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>95,127,158,190,254</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:16">
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="str">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="J11" s="6">
+        <v>123</v>
+      </c>
+      <c r="K11" s="6">
+        <v>164</v>
+      </c>
+      <c r="L11" s="6">
+        <v>205</v>
+      </c>
+      <c r="M11" s="6">
+        <v>246</v>
+      </c>
+      <c r="N11" s="6">
+        <v>328</v>
+      </c>
+      <c r="O11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>123,164,205,246,328</v>
+      </c>
+      <c r="P11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2403,13 +2403,13 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -2418,76 +2418,76 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
+      <c r="J12" s="6">
+        <v>168</v>
+      </c>
+      <c r="K12" s="6">
+        <v>225</v>
+      </c>
+      <c r="L12" s="6">
+        <v>281</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>450</v>
+      </c>
+      <c r="O12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>168,225,281,337,450</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:16">
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="str">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="str">
         <f t="shared" ref="I13:I44" si="2">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="J13" s="6">
+        <v>237</v>
+      </c>
+      <c r="K13" s="6">
+        <v>316</v>
+      </c>
+      <c r="L13" s="6">
+        <v>395</v>
+      </c>
+      <c r="M13" s="6">
+        <v>474</v>
+      </c>
+      <c r="N13" s="6">
+        <v>632</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>237,316,395,474,632</v>
+      </c>
+      <c r="P13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2495,13 +2495,13 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -2510,76 +2510,76 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
+      <c r="J14" s="6">
+        <v>332</v>
+      </c>
+      <c r="K14" s="6">
+        <v>443</v>
+      </c>
+      <c r="L14" s="6">
+        <v>553</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>664</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>886</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>332,443,553,664,886</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:16">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="str">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="J15" s="6">
+        <v>459</v>
+      </c>
+      <c r="K15" s="6">
+        <v>612</v>
+      </c>
+      <c r="L15" s="6">
+        <v>765</v>
+      </c>
+      <c r="M15" s="6">
+        <v>918</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1224</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>459,612,765,918,1224</v>
+      </c>
+      <c r="P15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2587,13 +2587,13 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -2602,76 +2602,76 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
+      <c r="J16" s="6">
+        <v>621</v>
+      </c>
+      <c r="K16" s="6">
+        <v>829</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1036</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>1243</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>1658</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>621,829,1036,1243,1658</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:16">
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="str">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="J17" s="6">
+        <v>825</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1375</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1650</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2200</v>
+      </c>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>825,1100,1375,1650,2200</v>
+      </c>
+      <c r="P17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2679,13 +2679,13 @@
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -2694,76 +2694,76 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
+      <c r="J18" s="6">
+        <v>1073</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1431</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1788</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>2146</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>2862</v>
+      </c>
+      <c r="O18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1073,1431,1788,2146,2862</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:16">
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="str">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="J19" s="6">
+        <v>1371</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1828</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2285</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2742</v>
+      </c>
+      <c r="N19" s="6">
+        <v>3656</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1371,1828,2285,2742,3656</v>
+      </c>
+      <c r="P19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2771,13 +2771,13 @@
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -2786,76 +2786,76 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
+      <c r="J20" s="6">
+        <v>1722</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2297</v>
+      </c>
+      <c r="L20" s="6">
+        <v>2871</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
+        <v>3445</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>4594</v>
+      </c>
+      <c r="O20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1722,2297,2871,3445,4594</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:16">
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="str">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="J21" s="6">
+        <v>2133</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2844</v>
+      </c>
+      <c r="L21" s="6">
+        <v>3555</v>
+      </c>
+      <c r="M21" s="6">
+        <v>4266</v>
+      </c>
+      <c r="N21" s="6">
+        <v>5688</v>
+      </c>
+      <c r="O21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2133,2844,3555,4266,5688</v>
+      </c>
+      <c r="P21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2863,13 +2863,13 @@
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -2878,74 +2878,74 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
+      <c r="J22" s="6">
+        <v>2606</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3475</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4343</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>5212</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>6950</v>
+      </c>
+      <c r="O22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2606,3475,4343,5212,6950</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:16">
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="str">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J23" s="6">
+        <v>3147</v>
+      </c>
+      <c r="K23" s="6">
+        <v>4196</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5245</v>
+      </c>
+      <c r="M23" s="6">
+        <v>6294</v>
+      </c>
+      <c r="N23" s="6">
+        <v>8392</v>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3147,4196,5245,6294,8392</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
@@ -2955,13 +2955,13 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -2970,74 +2970,74 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
+      <c r="J24" s="6">
+        <v>3759</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5013</v>
+      </c>
+      <c r="L24" s="6">
+        <v>6266</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>7519</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>10026</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3759,5013,6266,7519,10026</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:16">
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="str">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J25" s="6">
+        <v>4449</v>
+      </c>
+      <c r="K25" s="6">
+        <v>5932</v>
+      </c>
+      <c r="L25" s="6">
+        <v>7415</v>
+      </c>
+      <c r="M25" s="6">
+        <v>8898</v>
+      </c>
+      <c r="N25" s="6">
+        <v>11864</v>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4449,5932,7415,8898,11864</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
@@ -3047,13 +3047,13 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -3062,74 +3062,74 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
+      <c r="J26" s="6">
+        <v>5219</v>
+      </c>
+      <c r="K26" s="6">
+        <v>6959</v>
+      </c>
+      <c r="L26" s="6">
+        <v>8698</v>
       </c>
       <c r="M26" s="1">
-        <v>1</v>
+        <v>10438</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>13918</v>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>5219,6959,8698,10438,13918</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:16">
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>21</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="str">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J27" s="6">
+        <v>6075</v>
+      </c>
+      <c r="K27" s="6">
+        <v>8100</v>
+      </c>
+      <c r="L27" s="6">
+        <v>10125</v>
+      </c>
+      <c r="M27" s="6">
+        <v>12150</v>
+      </c>
+      <c r="N27" s="6">
+        <v>16200</v>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>6075,8100,10125,12150,16200</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -3139,13 +3139,13 @@
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -3154,74 +3154,74 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
+      <c r="J28" s="6">
+        <v>7020</v>
+      </c>
+      <c r="K28" s="6">
+        <v>9361</v>
+      </c>
+      <c r="L28" s="6">
+        <v>11701</v>
       </c>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>14041</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>18722</v>
+      </c>
+      <c r="O28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>7020,9361,11701,14041,18722</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>23</v>
       </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="str">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J29" s="6">
+        <v>8061</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10748</v>
+      </c>
+      <c r="L29" s="6">
+        <v>13435</v>
+      </c>
+      <c r="M29" s="6">
+        <v>16122</v>
+      </c>
+      <c r="N29" s="6">
+        <v>21496</v>
+      </c>
+      <c r="O29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>8061,10748,13435,16122,21496</v>
       </c>
       <c r="P29" s="1">
         <v>1</v>
@@ -3231,13 +3231,13 @@
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -3246,74 +3246,74 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
+      <c r="J30" s="6">
+        <v>9200</v>
+      </c>
+      <c r="K30" s="6">
+        <v>12267</v>
+      </c>
+      <c r="L30" s="6">
+        <v>15333</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>18400</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>24534</v>
+      </c>
+      <c r="O30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>9200,12267,15333,18400,24534</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:16">
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="str">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J31" s="6">
+        <v>10443</v>
+      </c>
+      <c r="K31" s="6">
+        <v>13924</v>
+      </c>
+      <c r="L31" s="6">
+        <v>17405</v>
+      </c>
+      <c r="M31" s="6">
+        <v>20886</v>
+      </c>
+      <c r="N31" s="6">
+        <v>27848</v>
+      </c>
+      <c r="O31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>10443,13924,17405,20886,27848</v>
       </c>
       <c r="P31" s="1">
         <v>1</v>
@@ -3323,13 +3323,13 @@
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -3338,74 +3338,74 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5">
-        <v>1</v>
+      <c r="J32" s="6">
+        <v>11793</v>
+      </c>
+      <c r="K32" s="6">
+        <v>15725</v>
+      </c>
+      <c r="L32" s="6">
+        <v>19656</v>
       </c>
       <c r="M32" s="1">
-        <v>1</v>
+        <v>23587</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>31450</v>
+      </c>
+      <c r="O32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>11793,15725,19656,23587,31450</v>
       </c>
       <c r="P32" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:16">
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>27</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="str">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J33" s="6">
+        <v>13257</v>
+      </c>
+      <c r="K33" s="6">
+        <v>17676</v>
+      </c>
+      <c r="L33" s="6">
+        <v>22095</v>
+      </c>
+      <c r="M33" s="6">
+        <v>26514</v>
+      </c>
+      <c r="N33" s="6">
+        <v>35352</v>
+      </c>
+      <c r="O33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13257,17676,22095,26514,35352</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
@@ -3415,13 +3415,13 @@
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -3430,74 +3430,74 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
+      <c r="J34" s="6">
+        <v>14837</v>
+      </c>
+      <c r="K34" s="6">
+        <v>19783</v>
+      </c>
+      <c r="L34" s="6">
+        <v>24728</v>
       </c>
       <c r="M34" s="1">
-        <v>1</v>
+        <v>29674</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>39566</v>
+      </c>
+      <c r="O34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>14837,19783,24728,29674,39566</v>
       </c>
       <c r="P34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>29</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="str">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1</v>
-      </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J35" s="6">
+        <v>16539</v>
+      </c>
+      <c r="K35" s="6">
+        <v>22052</v>
+      </c>
+      <c r="L35" s="6">
+        <v>27565</v>
+      </c>
+      <c r="M35" s="6">
+        <v>33078</v>
+      </c>
+      <c r="N35" s="6">
+        <v>44104</v>
+      </c>
+      <c r="O35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>16539,22052,27565,33078,44104</v>
       </c>
       <c r="P35" s="1">
         <v>2</v>
@@ -3507,13 +3507,13 @@
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -3522,74 +3522,74 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
+      <c r="J36" s="6">
+        <v>18366</v>
+      </c>
+      <c r="K36" s="6">
+        <v>24489</v>
+      </c>
+      <c r="L36" s="6">
+        <v>30611</v>
       </c>
       <c r="M36" s="1">
-        <v>1</v>
+        <v>36733</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>48978</v>
+      </c>
+      <c r="O36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18366,24489,30611,36733,48978</v>
       </c>
       <c r="P36" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>31</v>
       </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="str">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5">
-        <v>1</v>
-      </c>
-      <c r="N37" s="5">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J37" s="6">
+        <v>20325</v>
+      </c>
+      <c r="K37" s="6">
+        <v>27100</v>
+      </c>
+      <c r="L37" s="6">
+        <v>33875</v>
+      </c>
+      <c r="M37" s="6">
+        <v>40650</v>
+      </c>
+      <c r="N37" s="6">
+        <v>54200</v>
+      </c>
+      <c r="O37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20325,27100,33875,40650,54200</v>
       </c>
       <c r="P37" s="1">
         <v>2</v>
@@ -3599,13 +3599,13 @@
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -3614,74 +3614,74 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5">
-        <v>1</v>
-      </c>
-      <c r="L38" s="5">
-        <v>1</v>
+      <c r="J38" s="6">
+        <v>22418</v>
+      </c>
+      <c r="K38" s="6">
+        <v>29891</v>
+      </c>
+      <c r="L38" s="6">
+        <v>37363</v>
       </c>
       <c r="M38" s="1">
-        <v>1</v>
+        <v>44836</v>
       </c>
       <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>59782</v>
+      </c>
+      <c r="O38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>22418,29891,37363,44836,59782</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>33</v>
       </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5" t="str">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1</v>
-      </c>
-      <c r="N39" s="5">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J39" s="6">
+        <v>24651</v>
+      </c>
+      <c r="K39" s="6">
+        <v>32868</v>
+      </c>
+      <c r="L39" s="6">
+        <v>41085</v>
+      </c>
+      <c r="M39" s="6">
+        <v>49302</v>
+      </c>
+      <c r="N39" s="6">
+        <v>65736</v>
+      </c>
+      <c r="O39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>24651,32868,41085,49302,65736</v>
       </c>
       <c r="P39" s="1">
         <v>2</v>
@@ -3691,13 +3691,13 @@
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
         <v>1</v>
       </c>
       <c r="G40" s="1">
@@ -3706,74 +3706,74 @@
       <c r="H40" s="1">
         <v>1</v>
       </c>
-      <c r="I40" s="5" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
+      <c r="J40" s="6">
+        <v>27027</v>
+      </c>
+      <c r="K40" s="6">
+        <v>36037</v>
+      </c>
+      <c r="L40" s="6">
+        <v>45046</v>
       </c>
       <c r="M40" s="1">
-        <v>1</v>
+        <v>54055</v>
       </c>
       <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>72074</v>
+      </c>
+      <c r="O40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>27027,36037,45046,54055,72074</v>
       </c>
       <c r="P40" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>35</v>
       </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5" t="str">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5">
-        <v>1</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J41" s="6">
+        <v>29553</v>
+      </c>
+      <c r="K41" s="6">
+        <v>39404</v>
+      </c>
+      <c r="L41" s="6">
+        <v>49255</v>
+      </c>
+      <c r="M41" s="6">
+        <v>59106</v>
+      </c>
+      <c r="N41" s="6">
+        <v>78808</v>
+      </c>
+      <c r="O41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>29553,39404,49255,59106,78808</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
@@ -3783,13 +3783,13 @@
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -3798,74 +3798,74 @@
       <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1</v>
+      <c r="J42" s="6">
+        <v>32231</v>
+      </c>
+      <c r="K42" s="6">
+        <v>42975</v>
+      </c>
+      <c r="L42" s="6">
+        <v>53718</v>
       </c>
       <c r="M42" s="1">
-        <v>1</v>
+        <v>64462</v>
       </c>
       <c r="N42" s="1">
-        <v>1</v>
-      </c>
-      <c r="O42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>85950</v>
+      </c>
+      <c r="O42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>32231,42975,53718,64462,85950</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>37</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5" t="str">
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5">
-        <v>1</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J43" s="6">
+        <v>35067</v>
+      </c>
+      <c r="K43" s="6">
+        <v>46756</v>
+      </c>
+      <c r="L43" s="6">
+        <v>58445</v>
+      </c>
+      <c r="M43" s="6">
+        <v>70134</v>
+      </c>
+      <c r="N43" s="6">
+        <v>93512</v>
+      </c>
+      <c r="O43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>35067,46756,58445,70134,93512</v>
       </c>
       <c r="P43" s="1">
         <v>3</v>
@@ -3875,13 +3875,13 @@
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="G44" s="1">
@@ -3890,74 +3890,74 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5">
-        <v>1</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1</v>
+      <c r="J44" s="6">
+        <v>38064</v>
+      </c>
+      <c r="K44" s="6">
+        <v>50753</v>
+      </c>
+      <c r="L44" s="6">
+        <v>63441</v>
       </c>
       <c r="M44" s="1">
-        <v>1</v>
+        <v>76129</v>
       </c>
       <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>101506</v>
+      </c>
+      <c r="O44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>38064,50753,63441,76129,101506</v>
       </c>
       <c r="P44" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:16">
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>39</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5" t="str">
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="str">
         <f t="shared" ref="I45:I71" si="3">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5">
-        <v>1</v>
-      </c>
-      <c r="N45" s="5">
-        <v>1</v>
-      </c>
-      <c r="O45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J45" s="6">
+        <v>41229</v>
+      </c>
+      <c r="K45" s="6">
+        <v>54972</v>
+      </c>
+      <c r="L45" s="6">
+        <v>68715</v>
+      </c>
+      <c r="M45" s="6">
+        <v>82458</v>
+      </c>
+      <c r="N45" s="6">
+        <v>109944</v>
+      </c>
+      <c r="O45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>41229,54972,68715,82458,109944</v>
       </c>
       <c r="P45" s="1">
         <v>3</v>
@@ -3967,13 +3967,13 @@
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="1">
@@ -3982,74 +3982,74 @@
       <c r="H46" s="1">
         <v>1</v>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="I46" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J46" s="5">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
+      <c r="J46" s="6">
+        <v>44564</v>
+      </c>
+      <c r="K46" s="6">
+        <v>59419</v>
+      </c>
+      <c r="L46" s="6">
+        <v>74273</v>
       </c>
       <c r="M46" s="1">
-        <v>1</v>
+        <v>89128</v>
       </c>
       <c r="N46" s="1">
-        <v>1</v>
-      </c>
-      <c r="O46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>118838</v>
+      </c>
+      <c r="O46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>44564,59419,74273,89128,118838</v>
       </c>
       <c r="P46" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:16">
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>41</v>
       </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5" t="str">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J47" s="5">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5">
-        <v>1</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5">
-        <v>1</v>
-      </c>
-      <c r="N47" s="5">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J47" s="6">
+        <v>48075</v>
+      </c>
+      <c r="K47" s="6">
+        <v>64100</v>
+      </c>
+      <c r="L47" s="6">
+        <v>80125</v>
+      </c>
+      <c r="M47" s="6">
+        <v>96150</v>
+      </c>
+      <c r="N47" s="6">
+        <v>128200</v>
+      </c>
+      <c r="O47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>48075,64100,80125,96150,128200</v>
       </c>
       <c r="P47" s="1">
         <v>3</v>
@@ -4059,13 +4059,13 @@
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
         <v>1</v>
       </c>
       <c r="G48" s="1">
@@ -4074,74 +4074,74 @@
       <c r="H48" s="1">
         <v>1</v>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="I48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
+      <c r="J48" s="6">
+        <v>51765</v>
+      </c>
+      <c r="K48" s="6">
+        <v>69021</v>
+      </c>
+      <c r="L48" s="6">
+        <v>86276</v>
       </c>
       <c r="M48" s="1">
-        <v>1</v>
+        <v>103531</v>
       </c>
       <c r="N48" s="1">
-        <v>1</v>
-      </c>
-      <c r="O48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>138042</v>
+      </c>
+      <c r="O48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>51765,69021,86276,103531,138042</v>
       </c>
       <c r="P48" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:16">
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>43</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1</v>
-      </c>
-      <c r="I49" s="5" t="str">
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J49" s="5">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5">
-        <v>1</v>
-      </c>
-      <c r="M49" s="5">
-        <v>1</v>
-      </c>
-      <c r="N49" s="5">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J49" s="6">
+        <v>55641</v>
+      </c>
+      <c r="K49" s="6">
+        <v>74188</v>
+      </c>
+      <c r="L49" s="6">
+        <v>92735</v>
+      </c>
+      <c r="M49" s="6">
+        <v>111282</v>
+      </c>
+      <c r="N49" s="6">
+        <v>148376</v>
+      </c>
+      <c r="O49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>55641,74188,92735,111282,148376</v>
       </c>
       <c r="P49" s="1">
         <v>3</v>
@@ -4151,13 +4151,13 @@
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
         <v>1</v>
       </c>
       <c r="G50" s="1">
@@ -4166,74 +4166,74 @@
       <c r="H50" s="1">
         <v>1</v>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J50" s="5">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
+      <c r="J50" s="6">
+        <v>59705</v>
+      </c>
+      <c r="K50" s="6">
+        <v>79607</v>
+      </c>
+      <c r="L50" s="6">
+        <v>99508</v>
       </c>
       <c r="M50" s="1">
-        <v>1</v>
+        <v>119410</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>159214</v>
+      </c>
+      <c r="O50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>59705,79607,99508,119410,159214</v>
       </c>
       <c r="P50" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:16">
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <v>45</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5" t="str">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5">
-        <v>1</v>
-      </c>
-      <c r="N51" s="5">
-        <v>1</v>
-      </c>
-      <c r="O51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J51" s="6">
+        <v>63963</v>
+      </c>
+      <c r="K51" s="6">
+        <v>85284</v>
+      </c>
+      <c r="L51" s="6">
+        <v>106605</v>
+      </c>
+      <c r="M51" s="6">
+        <v>127926</v>
+      </c>
+      <c r="N51" s="6">
+        <v>170568</v>
+      </c>
+      <c r="O51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>63963,85284,106605,127926,170568</v>
       </c>
       <c r="P51" s="1">
         <v>3</v>
@@ -4243,13 +4243,13 @@
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
         <v>1</v>
       </c>
       <c r="G52" s="1">
@@ -4258,74 +4258,74 @@
       <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="I52" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J52" s="5">
-        <v>1</v>
-      </c>
-      <c r="K52" s="5">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5">
-        <v>1</v>
+      <c r="J52" s="6">
+        <v>68418</v>
+      </c>
+      <c r="K52" s="6">
+        <v>91225</v>
+      </c>
+      <c r="L52" s="6">
+        <v>114031</v>
       </c>
       <c r="M52" s="1">
-        <v>1</v>
+        <v>136837</v>
       </c>
       <c r="N52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>182450</v>
+      </c>
+      <c r="O52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>68418,91225,114031,136837,182450</v>
       </c>
       <c r="P52" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:16">
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>47</v>
       </c>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5" t="str">
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J53" s="5">
-        <v>1</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5">
-        <v>1</v>
-      </c>
-      <c r="M53" s="5">
-        <v>1</v>
-      </c>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J53" s="6">
+        <v>73077</v>
+      </c>
+      <c r="K53" s="6">
+        <v>97436</v>
+      </c>
+      <c r="L53" s="6">
+        <v>121795</v>
+      </c>
+      <c r="M53" s="6">
+        <v>146154</v>
+      </c>
+      <c r="N53" s="6">
+        <v>194872</v>
+      </c>
+      <c r="O53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>73077,97436,121795,146154,194872</v>
       </c>
       <c r="P53" s="1">
         <v>4</v>
@@ -4335,13 +4335,13 @@
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
         <v>1</v>
       </c>
       <c r="G54" s="1">
@@ -4350,74 +4350,74 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="5" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J54" s="5">
-        <v>1</v>
-      </c>
-      <c r="K54" s="5">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1</v>
+      <c r="J54" s="6">
+        <v>77942</v>
+      </c>
+      <c r="K54" s="6">
+        <v>103923</v>
+      </c>
+      <c r="L54" s="6">
+        <v>129903</v>
       </c>
       <c r="M54" s="1">
-        <v>1</v>
+        <v>155884</v>
       </c>
       <c r="N54" s="1">
-        <v>1</v>
-      </c>
-      <c r="O54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>207846</v>
+      </c>
+      <c r="O54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>77942,103923,129903,155884,207846</v>
       </c>
       <c r="P54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:16">
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <v>49</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55" s="5" t="str">
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J55" s="5">
-        <v>1</v>
-      </c>
-      <c r="K55" s="5">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1</v>
-      </c>
-      <c r="M55" s="5">
-        <v>1</v>
-      </c>
-      <c r="N55" s="5">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J55" s="6">
+        <v>83019</v>
+      </c>
+      <c r="K55" s="6">
+        <v>110692</v>
+      </c>
+      <c r="L55" s="6">
+        <v>138365</v>
+      </c>
+      <c r="M55" s="6">
+        <v>166038</v>
+      </c>
+      <c r="N55" s="6">
+        <v>221384</v>
+      </c>
+      <c r="O55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>83019,110692,138365,166038,221384</v>
       </c>
       <c r="P55" s="1">
         <v>4</v>
@@ -4427,13 +4427,13 @@
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
         <v>1</v>
       </c>
       <c r="G56" s="1">
@@ -4442,74 +4442,74 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="5" t="str">
+      <c r="I56" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J56" s="5">
-        <v>1</v>
-      </c>
-      <c r="K56" s="5">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5">
-        <v>1</v>
+      <c r="J56" s="6">
+        <v>88311</v>
+      </c>
+      <c r="K56" s="6">
+        <v>117749</v>
+      </c>
+      <c r="L56" s="6">
+        <v>147186</v>
       </c>
       <c r="M56" s="1">
-        <v>1</v>
+        <v>176623</v>
       </c>
       <c r="N56" s="1">
-        <v>1</v>
-      </c>
-      <c r="O56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>235498</v>
+      </c>
+      <c r="O56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>88311,117749,147186,176623,235498</v>
       </c>
       <c r="P56" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:16">
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>51</v>
       </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="5" t="str">
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5">
-        <v>1</v>
-      </c>
-      <c r="M57" s="5">
-        <v>1</v>
-      </c>
-      <c r="N57" s="5">
-        <v>1</v>
-      </c>
-      <c r="O57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J57" s="6">
+        <v>93825</v>
+      </c>
+      <c r="K57" s="6">
+        <v>125100</v>
+      </c>
+      <c r="L57" s="6">
+        <v>156375</v>
+      </c>
+      <c r="M57" s="6">
+        <v>187650</v>
+      </c>
+      <c r="N57" s="6">
+        <v>250200</v>
+      </c>
+      <c r="O57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>93825,125100,156375,187650,250200</v>
       </c>
       <c r="P57" s="1">
         <v>4</v>
@@ -4519,13 +4519,13 @@
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
         <v>1</v>
       </c>
       <c r="G58" s="1">
@@ -4534,74 +4534,74 @@
       <c r="H58" s="1">
         <v>1</v>
       </c>
-      <c r="I58" s="5" t="str">
+      <c r="I58" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="K58" s="5">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5">
-        <v>1</v>
+      <c r="J58" s="6">
+        <v>99563</v>
+      </c>
+      <c r="K58" s="6">
+        <v>132751</v>
+      </c>
+      <c r="L58" s="6">
+        <v>165938</v>
       </c>
       <c r="M58" s="1">
-        <v>1</v>
+        <v>199126</v>
       </c>
       <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>265502</v>
+      </c>
+      <c r="O58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>99563,132751,165938,199126,265502</v>
       </c>
       <c r="P58" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:16">
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>53</v>
       </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="5" t="str">
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5">
-        <v>1</v>
-      </c>
-      <c r="M59" s="5">
-        <v>1</v>
-      </c>
-      <c r="N59" s="5">
-        <v>1</v>
-      </c>
-      <c r="O59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J59" s="6">
+        <v>105531</v>
+      </c>
+      <c r="K59" s="6">
+        <v>140708</v>
+      </c>
+      <c r="L59" s="6">
+        <v>175885</v>
+      </c>
+      <c r="M59" s="6">
+        <v>211062</v>
+      </c>
+      <c r="N59" s="6">
+        <v>281416</v>
+      </c>
+      <c r="O59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>105531,140708,175885,211062,281416</v>
       </c>
       <c r="P59" s="1">
         <v>4</v>
@@ -4611,13 +4611,13 @@
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
         <v>1</v>
       </c>
       <c r="G60" s="1">
@@ -4626,74 +4626,74 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="I60" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5">
-        <v>1</v>
+      <c r="J60" s="6">
+        <v>111732</v>
+      </c>
+      <c r="K60" s="6">
+        <v>148977</v>
+      </c>
+      <c r="L60" s="6">
+        <v>186221</v>
       </c>
       <c r="M60" s="1">
-        <v>1</v>
+        <v>223465</v>
       </c>
       <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>297954</v>
+      </c>
+      <c r="O60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>111732,148977,186221,223465,297954</v>
       </c>
       <c r="P60" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:16">
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>55</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5" t="str">
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5">
-        <v>1</v>
-      </c>
-      <c r="L61" s="5">
-        <v>1</v>
-      </c>
-      <c r="M61" s="5">
-        <v>1</v>
-      </c>
-      <c r="N61" s="5">
-        <v>1</v>
-      </c>
-      <c r="O61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J61" s="6">
+        <v>118173</v>
+      </c>
+      <c r="K61" s="6">
+        <v>157564</v>
+      </c>
+      <c r="L61" s="6">
+        <v>196955</v>
+      </c>
+      <c r="M61" s="6">
+        <v>236346</v>
+      </c>
+      <c r="N61" s="6">
+        <v>315128</v>
+      </c>
+      <c r="O61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>118173,157564,196955,236346,315128</v>
       </c>
       <c r="P61" s="1">
         <v>4</v>
@@ -4703,13 +4703,13 @@
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
         <v>1</v>
       </c>
       <c r="G62" s="1">
@@ -4718,74 +4718,74 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="I62" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="5">
-        <v>1</v>
-      </c>
-      <c r="L62" s="5">
-        <v>1</v>
+      <c r="J62" s="6">
+        <v>124856</v>
+      </c>
+      <c r="K62" s="6">
+        <v>166475</v>
+      </c>
+      <c r="L62" s="6">
+        <v>208093</v>
       </c>
       <c r="M62" s="1">
-        <v>1</v>
+        <v>249712</v>
       </c>
       <c r="N62" s="1">
-        <v>1</v>
-      </c>
-      <c r="O62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>332950</v>
+      </c>
+      <c r="O62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>124856,166475,208093,249712,332950</v>
       </c>
       <c r="P62" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:16">
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>57</v>
       </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5" t="str">
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J63" s="5">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5">
-        <v>1</v>
-      </c>
-      <c r="L63" s="5">
-        <v>1</v>
-      </c>
-      <c r="M63" s="5">
-        <v>1</v>
-      </c>
-      <c r="N63" s="5">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J63" s="6">
+        <v>131787</v>
+      </c>
+      <c r="K63" s="6">
+        <v>175716</v>
+      </c>
+      <c r="L63" s="6">
+        <v>219645</v>
+      </c>
+      <c r="M63" s="6">
+        <v>263574</v>
+      </c>
+      <c r="N63" s="6">
+        <v>351432</v>
+      </c>
+      <c r="O63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>131787,175716,219645,263574,351432</v>
       </c>
       <c r="P63" s="1">
         <v>5</v>
@@ -4795,13 +4795,13 @@
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
         <v>1</v>
       </c>
       <c r="G64" s="1">
@@ -4810,74 +4810,74 @@
       <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="I64" s="5" t="str">
+      <c r="I64" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J64" s="5">
-        <v>1</v>
-      </c>
-      <c r="K64" s="5">
-        <v>1</v>
-      </c>
-      <c r="L64" s="5">
-        <v>1</v>
+      <c r="J64" s="6">
+        <v>138969</v>
+      </c>
+      <c r="K64" s="6">
+        <v>185293</v>
+      </c>
+      <c r="L64" s="6">
+        <v>231616</v>
       </c>
       <c r="M64" s="1">
-        <v>1</v>
+        <v>277939</v>
       </c>
       <c r="N64" s="1">
-        <v>1</v>
-      </c>
-      <c r="O64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>370586</v>
+      </c>
+      <c r="O64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>138969,185293,231616,277939,370586</v>
       </c>
       <c r="P64" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:16">
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <v>59</v>
       </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5" t="str">
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J65" s="5">
-        <v>1</v>
-      </c>
-      <c r="K65" s="5">
-        <v>1</v>
-      </c>
-      <c r="L65" s="5">
-        <v>1</v>
-      </c>
-      <c r="M65" s="5">
-        <v>1</v>
-      </c>
-      <c r="N65" s="5">
-        <v>1</v>
-      </c>
-      <c r="O65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+      <c r="J65" s="6">
+        <v>146409</v>
+      </c>
+      <c r="K65" s="6">
+        <v>195212</v>
+      </c>
+      <c r="L65" s="6">
+        <v>244015</v>
+      </c>
+      <c r="M65" s="6">
+        <v>292818</v>
+      </c>
+      <c r="N65" s="6">
+        <v>390424</v>
+      </c>
+      <c r="O65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>146409,195212,244015,292818,390424</v>
       </c>
       <c r="P65" s="1">
         <v>5</v>
@@ -4887,13 +4887,13 @@
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
         <v>1</v>
       </c>
       <c r="G66" s="1">
@@ -4902,44 +4902,44 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="5" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="5">
-        <v>1</v>
-      </c>
-      <c r="L66" s="5">
-        <v>1</v>
+      <c r="J66" s="6">
+        <v>154109</v>
+      </c>
+      <c r="K66" s="6">
+        <v>205479</v>
+      </c>
+      <c r="L66" s="6">
+        <v>256848</v>
       </c>
       <c r="M66" s="1">
-        <v>1</v>
+        <v>308218</v>
       </c>
       <c r="N66" s="1">
-        <v>1</v>
-      </c>
-      <c r="O66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>410958</v>
+      </c>
+      <c r="O66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>154109,205479,256848,308218,410958</v>
       </c>
       <c r="P66" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:16">
-      <c r="C67" s="5">
+      <c r="C67" s="6">
         <v>61</v>
       </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-      <c r="F67" s="5">
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
         <v>1</v>
       </c>
       <c r="G67" s="1">
@@ -4948,28 +4948,28 @@
       <c r="H67" s="1">
         <v>1</v>
       </c>
-      <c r="I67" s="5" t="str">
+      <c r="I67" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J67" s="5">
-        <v>1</v>
-      </c>
-      <c r="K67" s="5">
-        <v>1</v>
-      </c>
-      <c r="L67" s="5">
-        <v>1</v>
+      <c r="J67" s="6">
+        <v>162075</v>
+      </c>
+      <c r="K67" s="6">
+        <v>216100</v>
+      </c>
+      <c r="L67" s="6">
+        <v>270125</v>
       </c>
       <c r="M67" s="1">
-        <v>1</v>
+        <v>324150</v>
       </c>
       <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="O67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>432200</v>
+      </c>
+      <c r="O67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>162075,216100,270125,324150,432200</v>
       </c>
       <c r="P67" s="1">
         <v>5</v>
@@ -4979,13 +4979,13 @@
       <c r="C68" s="1">
         <v>62</v>
       </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1</v>
-      </c>
-      <c r="F68" s="5">
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
         <v>1</v>
       </c>
       <c r="G68" s="1">
@@ -4994,44 +4994,44 @@
       <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="5" t="str">
+      <c r="I68" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="5">
-        <v>1</v>
-      </c>
-      <c r="L68" s="5">
-        <v>1</v>
+      <c r="J68" s="6">
+        <v>170310</v>
+      </c>
+      <c r="K68" s="6">
+        <v>227081</v>
+      </c>
+      <c r="L68" s="6">
+        <v>283851</v>
       </c>
       <c r="M68" s="1">
-        <v>1</v>
+        <v>340621</v>
       </c>
       <c r="N68" s="1">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>454162</v>
+      </c>
+      <c r="O68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>170310,227081,283851,340621,454162</v>
       </c>
       <c r="P68" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:16">
-      <c r="C69" s="5">
+      <c r="C69" s="6">
         <v>63</v>
       </c>
-      <c r="D69" s="5">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5">
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
         <v>1</v>
       </c>
       <c r="G69" s="1">
@@ -5040,28 +5040,28 @@
       <c r="H69" s="1">
         <v>1</v>
       </c>
-      <c r="I69" s="5" t="str">
+      <c r="I69" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5">
-        <v>1</v>
-      </c>
-      <c r="L69" s="5">
-        <v>1</v>
+      <c r="J69" s="6">
+        <v>178821</v>
+      </c>
+      <c r="K69" s="6">
+        <v>238428</v>
+      </c>
+      <c r="L69" s="6">
+        <v>298035</v>
       </c>
       <c r="M69" s="1">
-        <v>1</v>
+        <v>357642</v>
       </c>
       <c r="N69" s="1">
-        <v>1</v>
-      </c>
-      <c r="O69" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>476856</v>
+      </c>
+      <c r="O69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>178821,238428,298035,357642,476856</v>
       </c>
       <c r="P69" s="1">
         <v>5</v>
@@ -5071,13 +5071,13 @@
       <c r="C70" s="1">
         <v>64</v>
       </c>
-      <c r="D70" s="5">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5">
-        <v>1</v>
-      </c>
-      <c r="F70" s="5">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="1">
@@ -5086,44 +5086,44 @@
       <c r="H70" s="1">
         <v>1</v>
       </c>
-      <c r="I70" s="5" t="str">
+      <c r="I70" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J70" s="5">
-        <v>1</v>
-      </c>
-      <c r="K70" s="5">
-        <v>1</v>
-      </c>
-      <c r="L70" s="5">
-        <v>1</v>
+      <c r="J70" s="6">
+        <v>187610</v>
+      </c>
+      <c r="K70" s="6">
+        <v>250147</v>
+      </c>
+      <c r="L70" s="6">
+        <v>312683</v>
       </c>
       <c r="M70" s="1">
-        <v>1</v>
+        <v>375220</v>
       </c>
       <c r="N70" s="1">
-        <v>1</v>
-      </c>
-      <c r="O70" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1,1,1,1,1</v>
+        <v>500294</v>
+      </c>
+      <c r="O70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>187610,250147,312683,375220,500294</v>
       </c>
       <c r="P70" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:16">
-      <c r="C71" s="5">
+      <c r="C71" s="6">
         <v>65</v>
       </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
         <v>1</v>
       </c>
       <c r="G71" s="1">
@@ -5132,28 +5132,28 @@
       <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="5" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="3"/>
         <v>1,1,1,1,1</v>
       </c>
-      <c r="J71" s="5">
-        <v>1</v>
-      </c>
-      <c r="K71" s="5">
-        <v>1</v>
-      </c>
-      <c r="L71" s="5">
-        <v>1</v>
+      <c r="J71" s="6">
+        <v>196683</v>
+      </c>
+      <c r="K71" s="6">
+        <v>262244</v>
+      </c>
+      <c r="L71" s="6">
+        <v>327805</v>
       </c>
       <c r="M71" s="1">
-        <v>1</v>
+        <v>393366</v>
       </c>
       <c r="N71" s="1">
-        <v>1</v>
-      </c>
-      <c r="O71" s="5" t="str">
+        <v>524488</v>
+      </c>
+      <c r="O71" s="6" t="str">
         <f>J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;","&amp;N71</f>
-        <v>1,1,1,1,1</v>
+        <v>196683,262244,327805,393366,524488</v>
       </c>
       <c r="P71" s="1">
         <v>5</v>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -131,17 +131,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,8 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +169,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,15 +198,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -214,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +214,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,25 +251,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,7 +308,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,55 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,67 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,80 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,151 +540,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:N71"/>
+      <selection activeCell="H7" sqref="H7:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2174,23 +2174,23 @@
         <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ref="I7:I12" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
-        <v>1,1,1,1,1</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -2220,23 +2220,23 @@
         <v>2</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
+        <v>10,10,10,10,10</v>
       </c>
       <c r="J8" s="6">
         <v>75</v>
@@ -2266,42 +2266,42 @@
         <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
+        <v>11,11,11,11,11</v>
       </c>
       <c r="J9" s="6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K9" s="6">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L9" s="6">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M9" s="6">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N9" s="6">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>81,108,135,162,216</v>
+        <v>79,105,132,158,211</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -2312,42 +2312,42 @@
         <v>4</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
+        <v>12,12,12,12,12</v>
       </c>
       <c r="J10" s="6">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K10" s="6">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L10" s="6">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M10" s="1">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="N10" s="1">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="O10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>95,127,158,190,254</v>
+        <v>86,115,144,173,231</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -2358,42 +2358,42 @@
         <v>5</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
+        <v>13,13,13,13,13</v>
       </c>
       <c r="J11" s="6">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K11" s="6">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L11" s="6">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="M11" s="6">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="N11" s="6">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="O11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>123,164,205,246,328</v>
+        <v>99,132,165,198,264</v>
       </c>
       <c r="P11" s="6">
         <v>0</v>
@@ -2404,42 +2404,42 @@
         <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G12" s="6">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6">
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1</v>
+        <v>14,14,14,14,14</v>
       </c>
       <c r="J12" s="6">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="K12" s="6">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="L12" s="6">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="N12" s="1">
-        <v>450</v>
+        <v>311</v>
       </c>
       <c r="O12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>168,225,281,337,450</v>
+        <v>116,155,194,233,311</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -2450,42 +2450,42 @@
         <v>7</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ref="I13:I44" si="2">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
-        <v>1,1,1,1,1</v>
+        <v>15,15,15,15,15</v>
       </c>
       <c r="J13" s="6">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="K13" s="6">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="L13" s="6">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="M13" s="6">
-        <v>474</v>
+        <v>282</v>
       </c>
       <c r="N13" s="6">
-        <v>632</v>
+        <v>376</v>
       </c>
       <c r="O13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>237,316,395,474,632</v>
+        <v>141,188,235,282,376</v>
       </c>
       <c r="P13" s="6">
         <v>0</v>
@@ -2496,42 +2496,42 @@
         <v>8</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="6">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6">
+        <v>16</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>16,16,16,16,16</v>
       </c>
       <c r="J14" s="6">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="K14" s="6">
-        <v>443</v>
+        <v>229</v>
       </c>
       <c r="L14" s="6">
-        <v>553</v>
+        <v>287</v>
       </c>
       <c r="M14" s="1">
-        <v>664</v>
+        <v>344</v>
       </c>
       <c r="N14" s="1">
-        <v>886</v>
+        <v>459</v>
       </c>
       <c r="O14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>332,443,553,664,886</v>
+        <v>172,229,287,344,459</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -2542,42 +2542,42 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>17,17,17,17,17</v>
       </c>
       <c r="J15" s="6">
-        <v>459</v>
+        <v>210</v>
       </c>
       <c r="K15" s="6">
-        <v>612</v>
+        <v>281</v>
       </c>
       <c r="L15" s="6">
-        <v>765</v>
+        <v>351</v>
       </c>
       <c r="M15" s="6">
-        <v>918</v>
+        <v>421</v>
       </c>
       <c r="N15" s="6">
-        <v>1224</v>
+        <v>562</v>
       </c>
       <c r="O15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>459,612,765,918,1224</v>
+        <v>210,281,351,421,562</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -2588,42 +2588,42 @@
         <v>10</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G16" s="6">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6">
+        <v>18</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>18,18,18,18,18</v>
       </c>
       <c r="J16" s="6">
-        <v>621</v>
+        <v>257</v>
       </c>
       <c r="K16" s="6">
-        <v>829</v>
+        <v>343</v>
       </c>
       <c r="L16" s="6">
-        <v>1036</v>
+        <v>428</v>
       </c>
       <c r="M16" s="1">
-        <v>1243</v>
+        <v>514</v>
       </c>
       <c r="N16" s="1">
-        <v>1658</v>
+        <v>686</v>
       </c>
       <c r="O16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>621,829,1036,1243,1658</v>
+        <v>257,343,428,514,686</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -2634,42 +2634,42 @@
         <v>11</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>19,19,19,19,19</v>
       </c>
       <c r="J17" s="6">
-        <v>825</v>
+        <v>312</v>
       </c>
       <c r="K17" s="6">
-        <v>1100</v>
+        <v>416</v>
       </c>
       <c r="L17" s="6">
-        <v>1375</v>
+        <v>520</v>
       </c>
       <c r="M17" s="6">
-        <v>1650</v>
+        <v>624</v>
       </c>
       <c r="N17" s="6">
-        <v>2200</v>
+        <v>832</v>
       </c>
       <c r="O17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>825,1100,1375,1650,2200</v>
+        <v>312,416,520,624,832</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -2680,42 +2680,42 @@
         <v>12</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6">
+        <v>20</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>20,20,20,20,20</v>
       </c>
       <c r="J18" s="6">
-        <v>1073</v>
+        <v>375</v>
       </c>
       <c r="K18" s="6">
-        <v>1431</v>
+        <v>501</v>
       </c>
       <c r="L18" s="6">
-        <v>1788</v>
+        <v>626</v>
       </c>
       <c r="M18" s="1">
-        <v>2146</v>
+        <v>751</v>
       </c>
       <c r="N18" s="1">
-        <v>2862</v>
+        <v>1002</v>
       </c>
       <c r="O18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1073,1431,1788,2146,2862</v>
+        <v>375,501,626,751,1002</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -2726,42 +2726,42 @@
         <v>13</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>21,21,21,21,21</v>
       </c>
       <c r="J19" s="6">
-        <v>1371</v>
+        <v>449</v>
       </c>
       <c r="K19" s="6">
-        <v>1828</v>
+        <v>598</v>
       </c>
       <c r="L19" s="6">
-        <v>2285</v>
+        <v>748</v>
       </c>
       <c r="M19" s="6">
-        <v>2742</v>
+        <v>898</v>
       </c>
       <c r="N19" s="6">
-        <v>3656</v>
+        <v>1197</v>
       </c>
       <c r="O19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1371,1828,2285,2742,3656</v>
+        <v>449,598,748,898,1197</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -2772,42 +2772,42 @@
         <v>14</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E20" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="6">
+        <v>22</v>
+      </c>
+      <c r="H20" s="6">
+        <v>22</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>22,22,22,22,22</v>
       </c>
       <c r="J20" s="6">
-        <v>1722</v>
+        <v>532</v>
       </c>
       <c r="K20" s="6">
-        <v>2297</v>
+        <v>709</v>
       </c>
       <c r="L20" s="6">
-        <v>2871</v>
+        <v>886</v>
       </c>
       <c r="M20" s="1">
-        <v>3445</v>
+        <v>1064</v>
       </c>
       <c r="N20" s="1">
-        <v>4594</v>
+        <v>1418</v>
       </c>
       <c r="O20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1722,2297,2871,3445,4594</v>
+        <v>532,709,886,1064,1418</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -2818,42 +2818,42 @@
         <v>15</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F21" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H21" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>23,23,23,23,23</v>
       </c>
       <c r="J21" s="6">
-        <v>2133</v>
+        <v>625</v>
       </c>
       <c r="K21" s="6">
-        <v>2844</v>
+        <v>833</v>
       </c>
       <c r="L21" s="6">
-        <v>3555</v>
+        <v>1041</v>
       </c>
       <c r="M21" s="6">
-        <v>4266</v>
+        <v>1250</v>
       </c>
       <c r="N21" s="6">
-        <v>5688</v>
+        <v>1666</v>
       </c>
       <c r="O21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>2133,2844,3555,4266,5688</v>
+        <v>625,833,1041,1250,1666</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -2864,42 +2864,42 @@
         <v>16</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="G22" s="6">
+        <v>24</v>
+      </c>
+      <c r="H22" s="6">
+        <v>24</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>24,24,24,24,24</v>
       </c>
       <c r="J22" s="6">
-        <v>2606</v>
+        <v>728</v>
       </c>
       <c r="K22" s="6">
-        <v>3475</v>
+        <v>971</v>
       </c>
       <c r="L22" s="6">
-        <v>4343</v>
+        <v>1214</v>
       </c>
       <c r="M22" s="1">
-        <v>5212</v>
+        <v>1457</v>
       </c>
       <c r="N22" s="1">
-        <v>6950</v>
+        <v>1942</v>
       </c>
       <c r="O22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>2606,3475,4343,5212,6950</v>
+        <v>728,971,1214,1457,1942</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -2910,42 +2910,42 @@
         <v>17</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>25,25,25,25,25</v>
       </c>
       <c r="J23" s="6">
-        <v>3147</v>
+        <v>843</v>
       </c>
       <c r="K23" s="6">
-        <v>4196</v>
+        <v>1124</v>
       </c>
       <c r="L23" s="6">
-        <v>5245</v>
+        <v>1405</v>
       </c>
       <c r="M23" s="6">
-        <v>6294</v>
+        <v>1686</v>
       </c>
       <c r="N23" s="6">
-        <v>8392</v>
+        <v>2248</v>
       </c>
       <c r="O23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>3147,4196,5245,6294,8392</v>
+        <v>843,1124,1405,1686,2248</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
@@ -2956,42 +2956,42 @@
         <v>18</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G24" s="6">
+        <v>26</v>
+      </c>
+      <c r="H24" s="6">
+        <v>26</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>26,26,26,26,26</v>
       </c>
       <c r="J24" s="6">
-        <v>3759</v>
+        <v>968</v>
       </c>
       <c r="K24" s="6">
-        <v>5013</v>
+        <v>1291</v>
       </c>
       <c r="L24" s="6">
-        <v>6266</v>
+        <v>1614</v>
       </c>
       <c r="M24" s="1">
-        <v>7519</v>
+        <v>1937</v>
       </c>
       <c r="N24" s="1">
-        <v>10026</v>
+        <v>2583</v>
       </c>
       <c r="O24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>3759,5013,6266,7519,10026</v>
+        <v>968,1291,1614,1937,2583</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
@@ -3002,42 +3002,42 @@
         <v>19</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>27,27,27,27,27</v>
       </c>
       <c r="J25" s="6">
-        <v>4449</v>
+        <v>1105</v>
       </c>
       <c r="K25" s="6">
-        <v>5932</v>
+        <v>1474</v>
       </c>
       <c r="L25" s="6">
-        <v>7415</v>
+        <v>1843</v>
       </c>
       <c r="M25" s="6">
-        <v>8898</v>
+        <v>2211</v>
       </c>
       <c r="N25" s="6">
-        <v>11864</v>
+        <v>2949</v>
       </c>
       <c r="O25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>4449,5932,7415,8898,11864</v>
+        <v>1105,1474,1843,2211,2949</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
@@ -3048,42 +3048,42 @@
         <v>20</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E26" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G26" s="6">
+        <v>28</v>
+      </c>
+      <c r="H26" s="6">
+        <v>28</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>28,28,28,28,28</v>
       </c>
       <c r="J26" s="6">
-        <v>5219</v>
+        <v>1255</v>
       </c>
       <c r="K26" s="6">
-        <v>6959</v>
+        <v>1673</v>
       </c>
       <c r="L26" s="6">
-        <v>8698</v>
+        <v>2091</v>
       </c>
       <c r="M26" s="1">
-        <v>10438</v>
+        <v>2510</v>
       </c>
       <c r="N26" s="1">
-        <v>13918</v>
+        <v>3347</v>
       </c>
       <c r="O26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>5219,6959,8698,10438,13918</v>
+        <v>1255,1673,2091,2510,3347</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
@@ -3094,42 +3094,42 @@
         <v>21</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F27" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G27" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>29,29,29,29,29</v>
       </c>
       <c r="J27" s="6">
-        <v>6075</v>
+        <v>1416</v>
       </c>
       <c r="K27" s="6">
-        <v>8100</v>
+        <v>1888</v>
       </c>
       <c r="L27" s="6">
-        <v>10125</v>
+        <v>2361</v>
       </c>
       <c r="M27" s="6">
-        <v>12150</v>
+        <v>2833</v>
       </c>
       <c r="N27" s="6">
-        <v>16200</v>
+        <v>3777</v>
       </c>
       <c r="O27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>6075,8100,10125,12150,16200</v>
+        <v>1416,1888,2361,2833,3777</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -3140,42 +3140,42 @@
         <v>22</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="G28" s="6">
+        <v>30</v>
+      </c>
+      <c r="H28" s="6">
+        <v>30</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>30,30,30,30,30</v>
       </c>
       <c r="J28" s="6">
-        <v>7020</v>
+        <v>1590</v>
       </c>
       <c r="K28" s="6">
-        <v>9361</v>
+        <v>2120</v>
       </c>
       <c r="L28" s="6">
-        <v>11701</v>
+        <v>2651</v>
       </c>
       <c r="M28" s="1">
-        <v>14041</v>
+        <v>3181</v>
       </c>
       <c r="N28" s="1">
-        <v>18722</v>
+        <v>4241</v>
       </c>
       <c r="O28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>7020,9361,11701,14041,18722</v>
+        <v>1590,2120,2651,3181,4241</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
@@ -3186,42 +3186,42 @@
         <v>23</v>
       </c>
       <c r="D29" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F29" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>31,31,31,31,31</v>
       </c>
       <c r="J29" s="6">
-        <v>8061</v>
+        <v>1777</v>
       </c>
       <c r="K29" s="6">
-        <v>10748</v>
+        <v>2370</v>
       </c>
       <c r="L29" s="6">
-        <v>13435</v>
+        <v>2962</v>
       </c>
       <c r="M29" s="6">
-        <v>16122</v>
+        <v>3555</v>
       </c>
       <c r="N29" s="6">
-        <v>21496</v>
+        <v>4740</v>
       </c>
       <c r="O29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>8061,10748,13435,16122,21496</v>
+        <v>1777,2370,2962,3555,4740</v>
       </c>
       <c r="P29" s="1">
         <v>1</v>
@@ -3232,42 +3232,42 @@
         <v>24</v>
       </c>
       <c r="D30" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E30" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="G30" s="6">
+        <v>32</v>
+      </c>
+      <c r="H30" s="6">
+        <v>32</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>32,32,32,32,32</v>
       </c>
       <c r="J30" s="6">
-        <v>9200</v>
+        <v>1977</v>
       </c>
       <c r="K30" s="6">
-        <v>12267</v>
+        <v>2636</v>
       </c>
       <c r="L30" s="6">
-        <v>15333</v>
+        <v>3296</v>
       </c>
       <c r="M30" s="1">
-        <v>18400</v>
+        <v>3955</v>
       </c>
       <c r="N30" s="1">
-        <v>24534</v>
+        <v>5273</v>
       </c>
       <c r="O30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>9200,12267,15333,18400,24534</v>
+        <v>1977,2636,3296,3955,5273</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
@@ -3278,42 +3278,42 @@
         <v>25</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>33,33,33,33,33</v>
       </c>
       <c r="J31" s="6">
-        <v>10443</v>
+        <v>2191</v>
       </c>
       <c r="K31" s="6">
-        <v>13924</v>
+        <v>2921</v>
       </c>
       <c r="L31" s="6">
-        <v>17405</v>
+        <v>3652</v>
       </c>
       <c r="M31" s="6">
-        <v>20886</v>
+        <v>4382</v>
       </c>
       <c r="N31" s="6">
-        <v>27848</v>
+        <v>5843</v>
       </c>
       <c r="O31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>10443,13924,17405,20886,27848</v>
+        <v>2191,2921,3652,4382,5843</v>
       </c>
       <c r="P31" s="1">
         <v>1</v>
@@ -3324,42 +3324,42 @@
         <v>26</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E32" s="6">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="G32" s="6">
+        <v>34</v>
+      </c>
+      <c r="H32" s="6">
+        <v>34</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>34,34,34,34,34</v>
       </c>
       <c r="J32" s="6">
-        <v>11793</v>
+        <v>2418</v>
       </c>
       <c r="K32" s="6">
-        <v>15725</v>
+        <v>3225</v>
       </c>
       <c r="L32" s="6">
-        <v>19656</v>
+        <v>4031</v>
       </c>
       <c r="M32" s="1">
-        <v>23587</v>
+        <v>4837</v>
       </c>
       <c r="N32" s="1">
-        <v>31450</v>
+        <v>6450</v>
       </c>
       <c r="O32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>11793,15725,19656,23587,31450</v>
+        <v>2418,3225,4031,4837,6450</v>
       </c>
       <c r="P32" s="1">
         <v>2</v>
@@ -3370,42 +3370,42 @@
         <v>27</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G33" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>35,35,35,35,35</v>
       </c>
       <c r="J33" s="6">
-        <v>13257</v>
+        <v>2660</v>
       </c>
       <c r="K33" s="6">
-        <v>17676</v>
+        <v>3546</v>
       </c>
       <c r="L33" s="6">
-        <v>22095</v>
+        <v>4433</v>
       </c>
       <c r="M33" s="6">
-        <v>26514</v>
+        <v>5320</v>
       </c>
       <c r="N33" s="6">
-        <v>35352</v>
+        <v>7093</v>
       </c>
       <c r="O33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>13257,17676,22095,26514,35352</v>
+        <v>2660,3546,4433,5320,7093</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
@@ -3416,42 +3416,42 @@
         <v>28</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E34" s="6">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="G34" s="6">
+        <v>36</v>
+      </c>
+      <c r="H34" s="6">
+        <v>36</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>36,36,36,36,36</v>
       </c>
       <c r="J34" s="6">
-        <v>14837</v>
+        <v>2915</v>
       </c>
       <c r="K34" s="6">
-        <v>19783</v>
+        <v>3887</v>
       </c>
       <c r="L34" s="6">
-        <v>24728</v>
+        <v>4859</v>
       </c>
       <c r="M34" s="1">
-        <v>29674</v>
+        <v>5831</v>
       </c>
       <c r="N34" s="1">
-        <v>39566</v>
+        <v>7775</v>
       </c>
       <c r="O34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>14837,19783,24728,29674,39566</v>
+        <v>2915,3887,4859,5831,7775</v>
       </c>
       <c r="P34" s="1">
         <v>2</v>
@@ -3462,42 +3462,42 @@
         <v>29</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E35" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F35" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G35" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H35" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>37,37,37,37,37</v>
       </c>
       <c r="J35" s="6">
-        <v>16539</v>
+        <v>3186</v>
       </c>
       <c r="K35" s="6">
-        <v>22052</v>
+        <v>4248</v>
       </c>
       <c r="L35" s="6">
-        <v>27565</v>
+        <v>5310</v>
       </c>
       <c r="M35" s="6">
-        <v>33078</v>
+        <v>6372</v>
       </c>
       <c r="N35" s="6">
-        <v>44104</v>
+        <v>8497</v>
       </c>
       <c r="O35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>16539,22052,27565,33078,44104</v>
+        <v>3186,4248,5310,6372,8497</v>
       </c>
       <c r="P35" s="1">
         <v>2</v>
@@ -3508,42 +3508,42 @@
         <v>30</v>
       </c>
       <c r="D36" s="6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E36" s="6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="G36" s="6">
+        <v>38</v>
+      </c>
+      <c r="H36" s="6">
+        <v>38</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>38,38,38,38,38</v>
       </c>
       <c r="J36" s="6">
-        <v>18366</v>
+        <v>3471</v>
       </c>
       <c r="K36" s="6">
-        <v>24489</v>
+        <v>4628</v>
       </c>
       <c r="L36" s="6">
-        <v>30611</v>
+        <v>5786</v>
       </c>
       <c r="M36" s="1">
-        <v>36733</v>
+        <v>6943</v>
       </c>
       <c r="N36" s="1">
-        <v>48978</v>
+        <v>9257</v>
       </c>
       <c r="O36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>18366,24489,30611,36733,48978</v>
+        <v>3471,4628,5786,6943,9257</v>
       </c>
       <c r="P36" s="1">
         <v>2</v>
@@ -3554,42 +3554,42 @@
         <v>31</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E37" s="6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F37" s="6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G37" s="6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H37" s="6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>39,39,39,39,39</v>
       </c>
       <c r="J37" s="6">
-        <v>20325</v>
+        <v>3772</v>
       </c>
       <c r="K37" s="6">
-        <v>27100</v>
+        <v>5029</v>
       </c>
       <c r="L37" s="6">
-        <v>33875</v>
+        <v>6286</v>
       </c>
       <c r="M37" s="6">
-        <v>40650</v>
+        <v>7544</v>
       </c>
       <c r="N37" s="6">
-        <v>54200</v>
+        <v>10059</v>
       </c>
       <c r="O37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>20325,27100,33875,40650,54200</v>
+        <v>3772,5029,6286,7544,10059</v>
       </c>
       <c r="P37" s="1">
         <v>2</v>
@@ -3600,42 +3600,42 @@
         <v>32</v>
       </c>
       <c r="D38" s="6">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E38" s="6">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G38" s="6">
+        <v>40</v>
+      </c>
+      <c r="H38" s="6">
+        <v>40</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>40,40,40,40,40</v>
       </c>
       <c r="J38" s="6">
-        <v>22418</v>
+        <v>4087</v>
       </c>
       <c r="K38" s="6">
-        <v>29891</v>
+        <v>5450</v>
       </c>
       <c r="L38" s="6">
-        <v>37363</v>
+        <v>6813</v>
       </c>
       <c r="M38" s="1">
-        <v>44836</v>
+        <v>8175</v>
       </c>
       <c r="N38" s="1">
-        <v>59782</v>
+        <v>10901</v>
       </c>
       <c r="O38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>22418,29891,37363,44836,59782</v>
+        <v>4087,5450,6813,8175,10901</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
@@ -3646,42 +3646,42 @@
         <v>33</v>
       </c>
       <c r="D39" s="6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E39" s="6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G39" s="6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H39" s="6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>41,41,41,41,41</v>
       </c>
       <c r="J39" s="6">
-        <v>24651</v>
+        <v>4419</v>
       </c>
       <c r="K39" s="6">
-        <v>32868</v>
+        <v>5892</v>
       </c>
       <c r="L39" s="6">
-        <v>41085</v>
+        <v>7365</v>
       </c>
       <c r="M39" s="6">
-        <v>49302</v>
+        <v>8838</v>
       </c>
       <c r="N39" s="6">
-        <v>65736</v>
+        <v>11785</v>
       </c>
       <c r="O39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>24651,32868,41085,49302,65736</v>
+        <v>4419,5892,7365,8838,11785</v>
       </c>
       <c r="P39" s="1">
         <v>2</v>
@@ -3692,42 +3692,42 @@
         <v>34</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E40" s="6">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="G40" s="6">
+        <v>42</v>
+      </c>
+      <c r="H40" s="6">
+        <v>42</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>42,42,42,42,42</v>
       </c>
       <c r="J40" s="6">
-        <v>27027</v>
+        <v>4766</v>
       </c>
       <c r="K40" s="6">
-        <v>36037</v>
+        <v>6355</v>
       </c>
       <c r="L40" s="6">
-        <v>45046</v>
+        <v>7944</v>
       </c>
       <c r="M40" s="1">
-        <v>54055</v>
+        <v>9533</v>
       </c>
       <c r="N40" s="1">
-        <v>72074</v>
+        <v>12711</v>
       </c>
       <c r="O40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>27027,36037,45046,54055,72074</v>
+        <v>4766,6355,7944,9533,12711</v>
       </c>
       <c r="P40" s="1">
         <v>2</v>
@@ -3738,42 +3738,42 @@
         <v>35</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F41" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>43,43,43,43,43</v>
       </c>
       <c r="J41" s="6">
-        <v>29553</v>
+        <v>5130</v>
       </c>
       <c r="K41" s="6">
-        <v>39404</v>
+        <v>6840</v>
       </c>
       <c r="L41" s="6">
-        <v>49255</v>
+        <v>8550</v>
       </c>
       <c r="M41" s="6">
-        <v>59106</v>
+        <v>10260</v>
       </c>
       <c r="N41" s="6">
-        <v>78808</v>
+        <v>13681</v>
       </c>
       <c r="O41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>29553,39404,49255,59106,78808</v>
+        <v>5130,6840,8550,10260,13681</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
@@ -3784,42 +3784,42 @@
         <v>36</v>
       </c>
       <c r="D42" s="6">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E42" s="6">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="G42" s="6">
+        <v>44</v>
+      </c>
+      <c r="H42" s="6">
+        <v>44</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>44,44,44,44,44</v>
       </c>
       <c r="J42" s="6">
-        <v>32231</v>
+        <v>5510</v>
       </c>
       <c r="K42" s="6">
-        <v>42975</v>
+        <v>7347</v>
       </c>
       <c r="L42" s="6">
-        <v>53718</v>
+        <v>9183</v>
       </c>
       <c r="M42" s="1">
-        <v>64462</v>
+        <v>11020</v>
       </c>
       <c r="N42" s="1">
-        <v>85950</v>
+        <v>14694</v>
       </c>
       <c r="O42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>32231,42975,53718,64462,85950</v>
+        <v>5510,7347,9183,11020,14694</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
@@ -3830,42 +3830,42 @@
         <v>37</v>
       </c>
       <c r="D43" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F43" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G43" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H43" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>45,45,45,45,45</v>
       </c>
       <c r="J43" s="6">
-        <v>35067</v>
+        <v>5907</v>
       </c>
       <c r="K43" s="6">
-        <v>46756</v>
+        <v>7876</v>
       </c>
       <c r="L43" s="6">
-        <v>58445</v>
+        <v>9845</v>
       </c>
       <c r="M43" s="6">
-        <v>70134</v>
+        <v>11814</v>
       </c>
       <c r="N43" s="6">
-        <v>93512</v>
+        <v>15752</v>
       </c>
       <c r="O43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>35067,46756,58445,70134,93512</v>
+        <v>5907,7876,9845,11814,15752</v>
       </c>
       <c r="P43" s="1">
         <v>3</v>
@@ -3876,42 +3876,42 @@
         <v>38</v>
       </c>
       <c r="D44" s="6">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E44" s="6">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="G44" s="6">
+        <v>46</v>
+      </c>
+      <c r="H44" s="6">
+        <v>46</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,1,1</v>
+        <v>46,46,46,46,46</v>
       </c>
       <c r="J44" s="6">
-        <v>38064</v>
+        <v>6320</v>
       </c>
       <c r="K44" s="6">
-        <v>50753</v>
+        <v>8427</v>
       </c>
       <c r="L44" s="6">
-        <v>63441</v>
+        <v>10534</v>
       </c>
       <c r="M44" s="1">
-        <v>76129</v>
+        <v>12640</v>
       </c>
       <c r="N44" s="1">
-        <v>101506</v>
+        <v>16854</v>
       </c>
       <c r="O44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>38064,50753,63441,76129,101506</v>
+        <v>6320,8427,10534,12640,16854</v>
       </c>
       <c r="P44" s="1">
         <v>3</v>
@@ -3922,42 +3922,42 @@
         <v>39</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E45" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F45" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H45" s="6">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" ref="I45:I71" si="3">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
-        <v>1,1,1,1,1</v>
+        <v>47,47,47,47,47</v>
       </c>
       <c r="J45" s="6">
-        <v>41229</v>
+        <v>6751</v>
       </c>
       <c r="K45" s="6">
-        <v>54972</v>
+        <v>9001</v>
       </c>
       <c r="L45" s="6">
-        <v>68715</v>
+        <v>11251</v>
       </c>
       <c r="M45" s="6">
-        <v>82458</v>
+        <v>13502</v>
       </c>
       <c r="N45" s="6">
-        <v>109944</v>
+        <v>18002</v>
       </c>
       <c r="O45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>41229,54972,68715,82458,109944</v>
+        <v>6751,9001,11251,13502,18002</v>
       </c>
       <c r="P45" s="1">
         <v>3</v>
@@ -3968,42 +3968,42 @@
         <v>40</v>
       </c>
       <c r="D46" s="6">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G46" s="6">
+        <v>48</v>
+      </c>
+      <c r="H46" s="6">
+        <v>48</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>48,48,48,48,48</v>
       </c>
       <c r="J46" s="6">
-        <v>44564</v>
+        <v>7198</v>
       </c>
       <c r="K46" s="6">
-        <v>59419</v>
+        <v>9598</v>
       </c>
       <c r="L46" s="6">
-        <v>74273</v>
+        <v>11998</v>
       </c>
       <c r="M46" s="1">
-        <v>89128</v>
+        <v>14397</v>
       </c>
       <c r="N46" s="1">
-        <v>118838</v>
+        <v>19197</v>
       </c>
       <c r="O46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>44564,59419,74273,89128,118838</v>
+        <v>7198,9598,11998,14397,19197</v>
       </c>
       <c r="P46" s="1">
         <v>3</v>
@@ -4014,42 +4014,42 @@
         <v>41</v>
       </c>
       <c r="D47" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G47" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="H47" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>49,49,49,49,49</v>
       </c>
       <c r="J47" s="6">
-        <v>48075</v>
+        <v>7664</v>
       </c>
       <c r="K47" s="6">
-        <v>64100</v>
+        <v>10219</v>
       </c>
       <c r="L47" s="6">
-        <v>80125</v>
+        <v>12774</v>
       </c>
       <c r="M47" s="6">
-        <v>96150</v>
+        <v>15328</v>
       </c>
       <c r="N47" s="6">
-        <v>128200</v>
+        <v>20438</v>
       </c>
       <c r="O47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>48075,64100,80125,96150,128200</v>
+        <v>7664,10219,12774,15328,20438</v>
       </c>
       <c r="P47" s="1">
         <v>3</v>
@@ -4060,42 +4060,42 @@
         <v>42</v>
       </c>
       <c r="D48" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E48" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="G48" s="6">
+        <v>50</v>
+      </c>
+      <c r="H48" s="6">
+        <v>50</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>50,50,50,50,50</v>
       </c>
       <c r="J48" s="6">
-        <v>51765</v>
+        <v>8147</v>
       </c>
       <c r="K48" s="6">
-        <v>69021</v>
+        <v>10863</v>
       </c>
       <c r="L48" s="6">
-        <v>86276</v>
+        <v>13579</v>
       </c>
       <c r="M48" s="1">
-        <v>103531</v>
+        <v>16295</v>
       </c>
       <c r="N48" s="1">
-        <v>138042</v>
+        <v>21727</v>
       </c>
       <c r="O48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>51765,69021,86276,103531,138042</v>
+        <v>8147,10863,13579,16295,21727</v>
       </c>
       <c r="P48" s="1">
         <v>3</v>
@@ -4106,42 +4106,42 @@
         <v>43</v>
       </c>
       <c r="D49" s="6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E49" s="6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F49" s="6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H49" s="6">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>51,51,51,51,51</v>
       </c>
       <c r="J49" s="6">
-        <v>55641</v>
+        <v>8649</v>
       </c>
       <c r="K49" s="6">
-        <v>74188</v>
+        <v>11532</v>
       </c>
       <c r="L49" s="6">
-        <v>92735</v>
+        <v>14415</v>
       </c>
       <c r="M49" s="6">
-        <v>111282</v>
+        <v>17298</v>
       </c>
       <c r="N49" s="6">
-        <v>148376</v>
+        <v>23064</v>
       </c>
       <c r="O49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>55641,74188,92735,111282,148376</v>
+        <v>8649,11532,14415,17298,23064</v>
       </c>
       <c r="P49" s="1">
         <v>3</v>
@@ -4152,42 +4152,42 @@
         <v>44</v>
       </c>
       <c r="D50" s="6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E50" s="6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="G50" s="6">
+        <v>52</v>
+      </c>
+      <c r="H50" s="6">
+        <v>52</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>52,52,52,52,52</v>
       </c>
       <c r="J50" s="6">
-        <v>59705</v>
+        <v>9168</v>
       </c>
       <c r="K50" s="6">
-        <v>79607</v>
+        <v>12224</v>
       </c>
       <c r="L50" s="6">
-        <v>99508</v>
+        <v>15280</v>
       </c>
       <c r="M50" s="1">
-        <v>119410</v>
+        <v>18337</v>
       </c>
       <c r="N50" s="1">
-        <v>159214</v>
+        <v>24449</v>
       </c>
       <c r="O50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>59705,79607,99508,119410,159214</v>
+        <v>9168,12224,15280,18337,24449</v>
       </c>
       <c r="P50" s="1">
         <v>3</v>
@@ -4198,42 +4198,42 @@
         <v>45</v>
       </c>
       <c r="D51" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H51" s="6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>53,53,53,53,53</v>
       </c>
       <c r="J51" s="6">
-        <v>63963</v>
+        <v>9706</v>
       </c>
       <c r="K51" s="6">
-        <v>85284</v>
+        <v>12941</v>
       </c>
       <c r="L51" s="6">
-        <v>106605</v>
+        <v>16177</v>
       </c>
       <c r="M51" s="6">
-        <v>127926</v>
+        <v>19412</v>
       </c>
       <c r="N51" s="6">
-        <v>170568</v>
+        <v>25883</v>
       </c>
       <c r="O51" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>63963,85284,106605,127926,170568</v>
+        <v>9706,12941,16177,19412,25883</v>
       </c>
       <c r="P51" s="1">
         <v>3</v>
@@ -4244,42 +4244,42 @@
         <v>46</v>
       </c>
       <c r="D52" s="6">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E52" s="6">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G52" s="6">
+        <v>54</v>
+      </c>
+      <c r="H52" s="6">
+        <v>54</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>54,54,54,54,54</v>
       </c>
       <c r="J52" s="6">
-        <v>68418</v>
+        <v>10263</v>
       </c>
       <c r="K52" s="6">
-        <v>91225</v>
+        <v>13684</v>
       </c>
       <c r="L52" s="6">
-        <v>114031</v>
+        <v>17105</v>
       </c>
       <c r="M52" s="1">
-        <v>136837</v>
+        <v>20526</v>
       </c>
       <c r="N52" s="1">
-        <v>182450</v>
+        <v>27368</v>
       </c>
       <c r="O52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>68418,91225,114031,136837,182450</v>
+        <v>10263,13684,17105,20526,27368</v>
       </c>
       <c r="P52" s="1">
         <v>4</v>
@@ -4290,42 +4290,42 @@
         <v>47</v>
       </c>
       <c r="D53" s="6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E53" s="6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F53" s="6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H53" s="6">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>55,55,55,55,55</v>
       </c>
       <c r="J53" s="6">
-        <v>73077</v>
+        <v>10838</v>
       </c>
       <c r="K53" s="6">
-        <v>97436</v>
+        <v>14451</v>
       </c>
       <c r="L53" s="6">
-        <v>121795</v>
+        <v>18064</v>
       </c>
       <c r="M53" s="6">
-        <v>146154</v>
+        <v>21677</v>
       </c>
       <c r="N53" s="6">
-        <v>194872</v>
+        <v>28902</v>
       </c>
       <c r="O53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>73077,97436,121795,146154,194872</v>
+        <v>10838,14451,18064,21677,28902</v>
       </c>
       <c r="P53" s="1">
         <v>4</v>
@@ -4336,42 +4336,42 @@
         <v>48</v>
       </c>
       <c r="D54" s="6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E54" s="6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="G54" s="6">
+        <v>56</v>
+      </c>
+      <c r="H54" s="6">
+        <v>56</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>56,56,56,56,56</v>
       </c>
       <c r="J54" s="6">
-        <v>77942</v>
+        <v>11433</v>
       </c>
       <c r="K54" s="6">
-        <v>103923</v>
+        <v>15244</v>
       </c>
       <c r="L54" s="6">
-        <v>129903</v>
+        <v>19055</v>
       </c>
       <c r="M54" s="1">
-        <v>155884</v>
+        <v>22866</v>
       </c>
       <c r="N54" s="1">
-        <v>207846</v>
+        <v>30488</v>
       </c>
       <c r="O54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>77942,103923,129903,155884,207846</v>
+        <v>11433,15244,19055,22866,30488</v>
       </c>
       <c r="P54" s="1">
         <v>4</v>
@@ -4382,42 +4382,42 @@
         <v>49</v>
       </c>
       <c r="D55" s="6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E55" s="6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F55" s="6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G55" s="6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H55" s="6">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>57,57,57,57,57</v>
       </c>
       <c r="J55" s="6">
-        <v>83019</v>
+        <v>12046</v>
       </c>
       <c r="K55" s="6">
-        <v>110692</v>
+        <v>16062</v>
       </c>
       <c r="L55" s="6">
-        <v>138365</v>
+        <v>20078</v>
       </c>
       <c r="M55" s="6">
-        <v>166038</v>
+        <v>24093</v>
       </c>
       <c r="N55" s="6">
-        <v>221384</v>
+        <v>32125</v>
       </c>
       <c r="O55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>83019,110692,138365,166038,221384</v>
+        <v>12046,16062,20078,24093,32125</v>
       </c>
       <c r="P55" s="1">
         <v>4</v>
@@ -4428,42 +4428,42 @@
         <v>50</v>
       </c>
       <c r="D56" s="6">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E56" s="6">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="G56" s="6">
+        <v>58</v>
+      </c>
+      <c r="H56" s="6">
+        <v>58</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>58,58,58,58,58</v>
       </c>
       <c r="J56" s="6">
-        <v>88311</v>
+        <v>12680</v>
       </c>
       <c r="K56" s="6">
-        <v>117749</v>
+        <v>16907</v>
       </c>
       <c r="L56" s="6">
-        <v>147186</v>
+        <v>21133</v>
       </c>
       <c r="M56" s="1">
-        <v>176623</v>
+        <v>25360</v>
       </c>
       <c r="N56" s="1">
-        <v>235498</v>
+        <v>33814</v>
       </c>
       <c r="O56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>88311,117749,147186,176623,235498</v>
+        <v>12680,16907,21133,25360,33814</v>
       </c>
       <c r="P56" s="1">
         <v>4</v>
@@ -4474,42 +4474,42 @@
         <v>51</v>
       </c>
       <c r="D57" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E57" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F57" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H57" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>59,59,59,59,59</v>
       </c>
       <c r="J57" s="6">
-        <v>93825</v>
+        <v>13333</v>
       </c>
       <c r="K57" s="6">
-        <v>125100</v>
+        <v>17777</v>
       </c>
       <c r="L57" s="6">
-        <v>156375</v>
+        <v>22222</v>
       </c>
       <c r="M57" s="6">
-        <v>187650</v>
+        <v>26666</v>
       </c>
       <c r="N57" s="6">
-        <v>250200</v>
+        <v>35555</v>
       </c>
       <c r="O57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>93825,125100,156375,187650,250200</v>
+        <v>13333,17777,22222,26666,35555</v>
       </c>
       <c r="P57" s="1">
         <v>4</v>
@@ -4520,42 +4520,42 @@
         <v>52</v>
       </c>
       <c r="D58" s="6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="G58" s="6">
+        <v>60</v>
+      </c>
+      <c r="H58" s="6">
+        <v>60</v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>60,60,60,60,60</v>
       </c>
       <c r="J58" s="6">
-        <v>99563</v>
+        <v>14006</v>
       </c>
       <c r="K58" s="6">
-        <v>132751</v>
+        <v>18674</v>
       </c>
       <c r="L58" s="6">
-        <v>165938</v>
+        <v>23343</v>
       </c>
       <c r="M58" s="1">
-        <v>199126</v>
+        <v>28012</v>
       </c>
       <c r="N58" s="1">
-        <v>265502</v>
+        <v>37349</v>
       </c>
       <c r="O58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>99563,132751,165938,199126,265502</v>
+        <v>14006,18674,23343,28012,37349</v>
       </c>
       <c r="P58" s="1">
         <v>4</v>
@@ -4566,42 +4566,42 @@
         <v>53</v>
       </c>
       <c r="D59" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F59" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H59" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>61,61,61,61,61</v>
       </c>
       <c r="J59" s="6">
-        <v>105531</v>
+        <v>14699</v>
       </c>
       <c r="K59" s="6">
-        <v>140708</v>
+        <v>19598</v>
       </c>
       <c r="L59" s="6">
-        <v>175885</v>
+        <v>24498</v>
       </c>
       <c r="M59" s="6">
-        <v>211062</v>
+        <v>29398</v>
       </c>
       <c r="N59" s="6">
-        <v>281416</v>
+        <v>39197</v>
       </c>
       <c r="O59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>105531,140708,175885,211062,281416</v>
+        <v>14699,19598,24498,29398,39197</v>
       </c>
       <c r="P59" s="1">
         <v>4</v>
@@ -4612,42 +4612,42 @@
         <v>54</v>
       </c>
       <c r="D60" s="6">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="G60" s="6">
+        <v>62</v>
+      </c>
+      <c r="H60" s="6">
+        <v>62</v>
       </c>
       <c r="I60" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>62,62,62,62,62</v>
       </c>
       <c r="J60" s="6">
-        <v>111732</v>
+        <v>15412</v>
       </c>
       <c r="K60" s="6">
-        <v>148977</v>
+        <v>20549</v>
       </c>
       <c r="L60" s="6">
-        <v>186221</v>
+        <v>25687</v>
       </c>
       <c r="M60" s="1">
-        <v>223465</v>
+        <v>30824</v>
       </c>
       <c r="N60" s="1">
-        <v>297954</v>
+        <v>41099</v>
       </c>
       <c r="O60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>111732,148977,186221,223465,297954</v>
+        <v>15412,20549,25687,30824,41099</v>
       </c>
       <c r="P60" s="1">
         <v>4</v>
@@ -4658,42 +4658,42 @@
         <v>55</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E61" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F61" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G61" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="H61" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>63,63,63,63,63</v>
       </c>
       <c r="J61" s="6">
-        <v>118173</v>
+        <v>16146</v>
       </c>
       <c r="K61" s="6">
-        <v>157564</v>
+        <v>21528</v>
       </c>
       <c r="L61" s="6">
-        <v>196955</v>
+        <v>26910</v>
       </c>
       <c r="M61" s="6">
-        <v>236346</v>
+        <v>32292</v>
       </c>
       <c r="N61" s="6">
-        <v>315128</v>
+        <v>43056</v>
       </c>
       <c r="O61" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>118173,157564,196955,236346,315128</v>
+        <v>16146,21528,26910,32292,43056</v>
       </c>
       <c r="P61" s="1">
         <v>4</v>
@@ -4704,42 +4704,42 @@
         <v>56</v>
       </c>
       <c r="D62" s="6">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E62" s="6">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="G62" s="6">
+        <v>64</v>
+      </c>
+      <c r="H62" s="6">
+        <v>64</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>64,64,64,64,64</v>
       </c>
       <c r="J62" s="6">
-        <v>124856</v>
+        <v>16900</v>
       </c>
       <c r="K62" s="6">
-        <v>166475</v>
+        <v>22534</v>
       </c>
       <c r="L62" s="6">
-        <v>208093</v>
+        <v>28167</v>
       </c>
       <c r="M62" s="1">
-        <v>249712</v>
+        <v>33801</v>
       </c>
       <c r="N62" s="1">
-        <v>332950</v>
+        <v>45068</v>
       </c>
       <c r="O62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>124856,166475,208093,249712,332950</v>
+        <v>16900,22534,28167,33801,45068</v>
       </c>
       <c r="P62" s="1">
         <v>5</v>
@@ -4750,42 +4750,42 @@
         <v>57</v>
       </c>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E63" s="6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F63" s="6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G63" s="6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="H63" s="6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>65,65,65,65,65</v>
       </c>
       <c r="J63" s="6">
-        <v>131787</v>
+        <v>17675</v>
       </c>
       <c r="K63" s="6">
-        <v>175716</v>
+        <v>23567</v>
       </c>
       <c r="L63" s="6">
-        <v>219645</v>
+        <v>29459</v>
       </c>
       <c r="M63" s="6">
-        <v>263574</v>
+        <v>35351</v>
       </c>
       <c r="N63" s="6">
-        <v>351432</v>
+        <v>47135</v>
       </c>
       <c r="O63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>131787,175716,219645,263574,351432</v>
+        <v>17675,23567,29459,35351,47135</v>
       </c>
       <c r="P63" s="1">
         <v>5</v>
@@ -4796,42 +4796,42 @@
         <v>58</v>
       </c>
       <c r="D64" s="6">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E64" s="6">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="G64" s="6">
+        <v>66</v>
+      </c>
+      <c r="H64" s="6">
+        <v>66</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>66,66,66,66,66</v>
       </c>
       <c r="J64" s="6">
-        <v>138969</v>
+        <v>18472</v>
       </c>
       <c r="K64" s="6">
-        <v>185293</v>
+        <v>24629</v>
       </c>
       <c r="L64" s="6">
-        <v>231616</v>
+        <v>30786</v>
       </c>
       <c r="M64" s="1">
-        <v>277939</v>
+        <v>36944</v>
       </c>
       <c r="N64" s="1">
-        <v>370586</v>
+        <v>49258</v>
       </c>
       <c r="O64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>138969,185293,231616,277939,370586</v>
+        <v>18472,24629,30786,36944,49258</v>
       </c>
       <c r="P64" s="1">
         <v>5</v>
@@ -4842,42 +4842,42 @@
         <v>59</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E65" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F65" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H65" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I65" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>67,67,67,67,67</v>
       </c>
       <c r="J65" s="6">
-        <v>146409</v>
+        <v>19289</v>
       </c>
       <c r="K65" s="6">
-        <v>195212</v>
+        <v>25719</v>
       </c>
       <c r="L65" s="6">
-        <v>244015</v>
+        <v>32149</v>
       </c>
       <c r="M65" s="6">
-        <v>292818</v>
+        <v>38579</v>
       </c>
       <c r="N65" s="6">
-        <v>390424</v>
+        <v>51438</v>
       </c>
       <c r="O65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>146409,195212,244015,292818,390424</v>
+        <v>19289,25719,32149,38579,51438</v>
       </c>
       <c r="P65" s="1">
         <v>5</v>
@@ -4888,42 +4888,42 @@
         <v>60</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E66" s="6">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G66" s="6">
+        <v>68</v>
+      </c>
+      <c r="H66" s="6">
+        <v>68</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>68,68,68,68,68</v>
       </c>
       <c r="J66" s="6">
-        <v>154109</v>
+        <v>20128</v>
       </c>
       <c r="K66" s="6">
-        <v>205479</v>
+        <v>26838</v>
       </c>
       <c r="L66" s="6">
-        <v>256848</v>
+        <v>33547</v>
       </c>
       <c r="M66" s="1">
-        <v>308218</v>
+        <v>40257</v>
       </c>
       <c r="N66" s="1">
-        <v>410958</v>
+        <v>53676</v>
       </c>
       <c r="O66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>154109,205479,256848,308218,410958</v>
+        <v>20128,26838,33547,40257,53676</v>
       </c>
       <c r="P66" s="1">
         <v>5</v>
@@ -4934,42 +4934,42 @@
         <v>61</v>
       </c>
       <c r="D67" s="6">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E67" s="6">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="G67" s="6">
+        <v>69</v>
+      </c>
+      <c r="H67" s="6">
+        <v>69</v>
       </c>
       <c r="I67" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>69,69,69,69,69</v>
       </c>
       <c r="J67" s="6">
-        <v>162075</v>
+        <v>20989</v>
       </c>
       <c r="K67" s="6">
-        <v>216100</v>
+        <v>27985</v>
       </c>
       <c r="L67" s="6">
-        <v>270125</v>
+        <v>34981</v>
       </c>
       <c r="M67" s="1">
-        <v>324150</v>
+        <v>41978</v>
       </c>
       <c r="N67" s="1">
-        <v>432200</v>
+        <v>55970</v>
       </c>
       <c r="O67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>162075,216100,270125,324150,432200</v>
+        <v>20989,27985,34981,41978,55970</v>
       </c>
       <c r="P67" s="1">
         <v>5</v>
@@ -4980,42 +4980,42 @@
         <v>62</v>
       </c>
       <c r="D68" s="6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E68" s="6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G68" s="6">
+        <v>70</v>
+      </c>
+      <c r="H68" s="6">
+        <v>70</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>70,70,70,70,70</v>
       </c>
       <c r="J68" s="6">
-        <v>170310</v>
+        <v>21871</v>
       </c>
       <c r="K68" s="6">
-        <v>227081</v>
+        <v>29161</v>
       </c>
       <c r="L68" s="6">
-        <v>283851</v>
+        <v>36452</v>
       </c>
       <c r="M68" s="1">
-        <v>340621</v>
+        <v>43742</v>
       </c>
       <c r="N68" s="1">
-        <v>454162</v>
+        <v>58323</v>
       </c>
       <c r="O68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>170310,227081,283851,340621,454162</v>
+        <v>21871,29161,36452,43742,58323</v>
       </c>
       <c r="P68" s="1">
         <v>5</v>
@@ -5026,42 +5026,42 @@
         <v>63</v>
       </c>
       <c r="D69" s="6">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E69" s="6">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="G69" s="6">
+        <v>71</v>
+      </c>
+      <c r="H69" s="6">
+        <v>71</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>71,71,71,71,71</v>
       </c>
       <c r="J69" s="6">
-        <v>178821</v>
+        <v>22775</v>
       </c>
       <c r="K69" s="6">
-        <v>238428</v>
+        <v>30367</v>
       </c>
       <c r="L69" s="6">
-        <v>298035</v>
+        <v>37959</v>
       </c>
       <c r="M69" s="1">
-        <v>357642</v>
+        <v>45551</v>
       </c>
       <c r="N69" s="1">
-        <v>476856</v>
+        <v>60735</v>
       </c>
       <c r="O69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>178821,238428,298035,357642,476856</v>
+        <v>22775,30367,37959,45551,60735</v>
       </c>
       <c r="P69" s="1">
         <v>5</v>
@@ -5072,42 +5072,42 @@
         <v>64</v>
       </c>
       <c r="D70" s="6">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E70" s="6">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G70" s="6">
+        <v>72</v>
+      </c>
+      <c r="H70" s="6">
+        <v>72</v>
       </c>
       <c r="I70" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>72,72,72,72,72</v>
       </c>
       <c r="J70" s="6">
-        <v>187610</v>
+        <v>23702</v>
       </c>
       <c r="K70" s="6">
-        <v>250147</v>
+        <v>31602</v>
       </c>
       <c r="L70" s="6">
-        <v>312683</v>
+        <v>39503</v>
       </c>
       <c r="M70" s="1">
-        <v>375220</v>
+        <v>47404</v>
       </c>
       <c r="N70" s="1">
-        <v>500294</v>
+        <v>63205</v>
       </c>
       <c r="O70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>187610,250147,312683,375220,500294</v>
+        <v>23702,31602,39503,47404,63205</v>
       </c>
       <c r="P70" s="1">
         <v>5</v>
@@ -5118,42 +5118,42 @@
         <v>65</v>
       </c>
       <c r="D71" s="6">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E71" s="6">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F71" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="G71" s="6">
+        <v>73</v>
+      </c>
+      <c r="H71" s="6">
+        <v>73</v>
       </c>
       <c r="I71" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1,1,1,1,1</v>
+        <v>73,73,73,73,73</v>
       </c>
       <c r="J71" s="6">
-        <v>196683</v>
+        <v>24651</v>
       </c>
       <c r="K71" s="6">
-        <v>262244</v>
+        <v>32868</v>
       </c>
       <c r="L71" s="6">
-        <v>327805</v>
+        <v>41085</v>
       </c>
       <c r="M71" s="1">
-        <v>393366</v>
+        <v>49302</v>
       </c>
       <c r="N71" s="1">
-        <v>524488</v>
+        <v>65736</v>
       </c>
       <c r="O71" s="6" t="str">
         <f>J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;","&amp;N71</f>
-        <v>196683,262244,327805,393366,524488</v>
+        <v>24651,32868,41085,49302,65736</v>
       </c>
       <c r="P71" s="1">
         <v>5</v>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,6 +22,9 @@
     <t>装备等级</t>
   </si>
   <si>
+    <t>对应CostLoot表</t>
+  </si>
+  <si>
     <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
@@ -98,6 +101,198 @@
   </si>
   <si>
     <t>[]int32</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1063</t>
   </si>
 </sst>
 </file>
@@ -105,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,24 +326,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,24 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +356,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,52 +376,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -258,6 +398,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -266,18 +421,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,31 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,31 +599,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,43 +647,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,19 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,15 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,6 +764,32 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -617,148 +812,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1978,7 +2173,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H71"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2021,35 +2216,37 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2057,7 +2254,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -2065,64 +2262,64 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2142,10 +2339,10 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2153,7 +2350,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2161,10 +2358,10 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
@@ -2219,24 +2416,24 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
-        <v>10</v>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>10,10,10,10,10</v>
+        <v>1000,1000,1000,1000,1000</v>
       </c>
       <c r="J8" s="6">
         <v>75</v>
@@ -2265,24 +2462,24 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6">
-        <v>11</v>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11,11,11,11,11</v>
+        <v>1001,1001,1001,1001,1001</v>
       </c>
       <c r="J9" s="6">
         <v>79</v>
@@ -2311,24 +2508,24 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
-        <v>12</v>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,12,12,12,12</v>
+        <v>1002,1002,1002,1002,1002</v>
       </c>
       <c r="J10" s="6">
         <v>86</v>
@@ -2357,24 +2554,24 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6">
-        <v>13</v>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>13,13,13,13,13</v>
+        <v>1003,1003,1003,1003,1003</v>
       </c>
       <c r="J11" s="6">
         <v>99</v>
@@ -2403,24 +2600,24 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6">
-        <v>14</v>
-      </c>
-      <c r="G12" s="6">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6">
-        <v>14</v>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>14,14,14,14,14</v>
+        <v>1004,1004,1004,1004,1004</v>
       </c>
       <c r="J12" s="6">
         <v>116</v>
@@ -2449,24 +2646,24 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6">
-        <v>15</v>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ref="I13:I44" si="2">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
-        <v>15,15,15,15,15</v>
+        <v>1005,1005,1005,1005,1005</v>
       </c>
       <c r="J13" s="6">
         <v>141</v>
@@ -2495,24 +2692,24 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="6">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6">
-        <v>16</v>
-      </c>
-      <c r="G14" s="6">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6">
-        <v>16</v>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>16,16,16,16,16</v>
+        <v>1006,1006,1006,1006,1006</v>
       </c>
       <c r="J14" s="6">
         <v>172</v>
@@ -2541,24 +2738,24 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6">
-        <v>17</v>
-      </c>
-      <c r="H15" s="6">
-        <v>17</v>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>17,17,17,17,17</v>
+        <v>1007,1007,1007,1007,1007</v>
       </c>
       <c r="J15" s="6">
         <v>210</v>
@@ -2587,24 +2784,24 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="6">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6">
-        <v>18</v>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>18,18,18,18,18</v>
+        <v>1008,1008,1008,1008,1008</v>
       </c>
       <c r="J16" s="6">
         <v>257</v>
@@ -2633,24 +2830,24 @@
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6">
-        <v>19</v>
-      </c>
-      <c r="G17" s="6">
-        <v>19</v>
-      </c>
-      <c r="H17" s="6">
-        <v>19</v>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>19,19,19,19,19</v>
+        <v>1009,1009,1009,1009,1009</v>
       </c>
       <c r="J17" s="6">
         <v>312</v>
@@ -2679,24 +2876,24 @@
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="6">
-        <v>20</v>
-      </c>
-      <c r="E18" s="6">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6">
-        <v>20</v>
-      </c>
-      <c r="G18" s="6">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6">
-        <v>20</v>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>20,20,20,20,20</v>
+        <v>1010,1010,1010,1010,1010</v>
       </c>
       <c r="J18" s="6">
         <v>375</v>
@@ -2725,24 +2922,24 @@
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6">
-        <v>21</v>
-      </c>
-      <c r="H19" s="6">
-        <v>21</v>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>21,21,21,21,21</v>
+        <v>1011,1011,1011,1011,1011</v>
       </c>
       <c r="J19" s="6">
         <v>449</v>
@@ -2771,24 +2968,24 @@
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="6">
-        <v>22</v>
-      </c>
-      <c r="E20" s="6">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6">
-        <v>22</v>
-      </c>
-      <c r="H20" s="6">
-        <v>22</v>
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>22,22,22,22,22</v>
+        <v>1012,1012,1012,1012,1012</v>
       </c>
       <c r="J20" s="6">
         <v>532</v>
@@ -2817,24 +3014,24 @@
       <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6">
-        <v>23</v>
-      </c>
-      <c r="F21" s="6">
-        <v>23</v>
-      </c>
-      <c r="G21" s="6">
-        <v>23</v>
-      </c>
-      <c r="H21" s="6">
-        <v>23</v>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>23,23,23,23,23</v>
+        <v>1013,1013,1013,1013,1013</v>
       </c>
       <c r="J21" s="6">
         <v>625</v>
@@ -2863,24 +3060,24 @@
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="6">
-        <v>24</v>
-      </c>
-      <c r="E22" s="6">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6">
-        <v>24</v>
-      </c>
-      <c r="G22" s="6">
-        <v>24</v>
-      </c>
-      <c r="H22" s="6">
-        <v>24</v>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>24,24,24,24,24</v>
+        <v>1014,1014,1014,1014,1014</v>
       </c>
       <c r="J22" s="6">
         <v>728</v>
@@ -2909,24 +3106,24 @@
       <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="D23" s="6">
-        <v>25</v>
-      </c>
-      <c r="E23" s="6">
-        <v>25</v>
-      </c>
-      <c r="F23" s="6">
-        <v>25</v>
-      </c>
-      <c r="G23" s="6">
-        <v>25</v>
-      </c>
-      <c r="H23" s="6">
-        <v>25</v>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>25,25,25,25,25</v>
+        <v>1015,1015,1015,1015,1015</v>
       </c>
       <c r="J23" s="6">
         <v>843</v>
@@ -2955,24 +3152,24 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="6">
-        <v>26</v>
-      </c>
-      <c r="E24" s="6">
-        <v>26</v>
-      </c>
-      <c r="F24" s="6">
-        <v>26</v>
-      </c>
-      <c r="G24" s="6">
-        <v>26</v>
-      </c>
-      <c r="H24" s="6">
-        <v>26</v>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>26,26,26,26,26</v>
+        <v>1016,1016,1016,1016,1016</v>
       </c>
       <c r="J24" s="6">
         <v>968</v>
@@ -3001,24 +3198,24 @@
       <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
-        <v>27</v>
-      </c>
-      <c r="E25" s="6">
-        <v>27</v>
-      </c>
-      <c r="F25" s="6">
-        <v>27</v>
-      </c>
-      <c r="G25" s="6">
-        <v>27</v>
-      </c>
-      <c r="H25" s="6">
-        <v>27</v>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>27,27,27,27,27</v>
+        <v>1017,1017,1017,1017,1017</v>
       </c>
       <c r="J25" s="6">
         <v>1105</v>
@@ -3047,24 +3244,24 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="6">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6">
-        <v>28</v>
-      </c>
-      <c r="F26" s="6">
-        <v>28</v>
-      </c>
-      <c r="G26" s="6">
-        <v>28</v>
-      </c>
-      <c r="H26" s="6">
-        <v>28</v>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>28,28,28,28,28</v>
+        <v>1018,1018,1018,1018,1018</v>
       </c>
       <c r="J26" s="6">
         <v>1255</v>
@@ -3093,24 +3290,24 @@
       <c r="C27" s="6">
         <v>21</v>
       </c>
-      <c r="D27" s="6">
-        <v>29</v>
-      </c>
-      <c r="E27" s="6">
-        <v>29</v>
-      </c>
-      <c r="F27" s="6">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6">
-        <v>29</v>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>29,29,29,29,29</v>
+        <v>1019,1019,1019,1019,1019</v>
       </c>
       <c r="J27" s="6">
         <v>1416</v>
@@ -3139,24 +3336,24 @@
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="6">
-        <v>30</v>
-      </c>
-      <c r="E28" s="6">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6">
-        <v>30</v>
-      </c>
-      <c r="G28" s="6">
-        <v>30</v>
-      </c>
-      <c r="H28" s="6">
-        <v>30</v>
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>30,30,30,30,30</v>
+        <v>1020,1020,1020,1020,1020</v>
       </c>
       <c r="J28" s="6">
         <v>1590</v>
@@ -3185,24 +3382,24 @@
       <c r="C29" s="6">
         <v>23</v>
       </c>
-      <c r="D29" s="6">
-        <v>31</v>
-      </c>
-      <c r="E29" s="6">
-        <v>31</v>
-      </c>
-      <c r="F29" s="6">
-        <v>31</v>
-      </c>
-      <c r="G29" s="6">
-        <v>31</v>
-      </c>
-      <c r="H29" s="6">
-        <v>31</v>
+      <c r="D29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>31,31,31,31,31</v>
+        <v>1021,1021,1021,1021,1021</v>
       </c>
       <c r="J29" s="6">
         <v>1777</v>
@@ -3231,24 +3428,24 @@
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="6">
-        <v>32</v>
-      </c>
-      <c r="E30" s="6">
-        <v>32</v>
-      </c>
-      <c r="F30" s="6">
-        <v>32</v>
-      </c>
-      <c r="G30" s="6">
-        <v>32</v>
-      </c>
-      <c r="H30" s="6">
-        <v>32</v>
+      <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>32,32,32,32,32</v>
+        <v>1022,1022,1022,1022,1022</v>
       </c>
       <c r="J30" s="6">
         <v>1977</v>
@@ -3277,24 +3474,24 @@
       <c r="C31" s="6">
         <v>25</v>
       </c>
-      <c r="D31" s="6">
-        <v>33</v>
-      </c>
-      <c r="E31" s="6">
-        <v>33</v>
-      </c>
-      <c r="F31" s="6">
-        <v>33</v>
-      </c>
-      <c r="G31" s="6">
-        <v>33</v>
-      </c>
-      <c r="H31" s="6">
-        <v>33</v>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>33,33,33,33,33</v>
+        <v>1023,1023,1023,1023,1023</v>
       </c>
       <c r="J31" s="6">
         <v>2191</v>
@@ -3323,24 +3520,24 @@
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="6">
-        <v>34</v>
-      </c>
-      <c r="E32" s="6">
-        <v>34</v>
-      </c>
-      <c r="F32" s="6">
-        <v>34</v>
-      </c>
-      <c r="G32" s="6">
-        <v>34</v>
-      </c>
-      <c r="H32" s="6">
-        <v>34</v>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>34,34,34,34,34</v>
+        <v>1024,1024,1024,1024,1024</v>
       </c>
       <c r="J32" s="6">
         <v>2418</v>
@@ -3369,24 +3566,24 @@
       <c r="C33" s="6">
         <v>27</v>
       </c>
-      <c r="D33" s="6">
-        <v>35</v>
-      </c>
-      <c r="E33" s="6">
-        <v>35</v>
-      </c>
-      <c r="F33" s="6">
-        <v>35</v>
-      </c>
-      <c r="G33" s="6">
-        <v>35</v>
-      </c>
-      <c r="H33" s="6">
-        <v>35</v>
+      <c r="D33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>35,35,35,35,35</v>
+        <v>1025,1025,1025,1025,1025</v>
       </c>
       <c r="J33" s="6">
         <v>2660</v>
@@ -3415,24 +3612,24 @@
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="6">
-        <v>36</v>
-      </c>
-      <c r="E34" s="6">
-        <v>36</v>
-      </c>
-      <c r="F34" s="6">
-        <v>36</v>
-      </c>
-      <c r="G34" s="6">
-        <v>36</v>
-      </c>
-      <c r="H34" s="6">
-        <v>36</v>
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>36,36,36,36,36</v>
+        <v>1026,1026,1026,1026,1026</v>
       </c>
       <c r="J34" s="6">
         <v>2915</v>
@@ -3461,24 +3658,24 @@
       <c r="C35" s="6">
         <v>29</v>
       </c>
-      <c r="D35" s="6">
-        <v>37</v>
-      </c>
-      <c r="E35" s="6">
-        <v>37</v>
-      </c>
-      <c r="F35" s="6">
-        <v>37</v>
-      </c>
-      <c r="G35" s="6">
-        <v>37</v>
-      </c>
-      <c r="H35" s="6">
-        <v>37</v>
+      <c r="D35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>37,37,37,37,37</v>
+        <v>1027,1027,1027,1027,1027</v>
       </c>
       <c r="J35" s="6">
         <v>3186</v>
@@ -3507,24 +3704,24 @@
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="6">
-        <v>38</v>
-      </c>
-      <c r="E36" s="6">
-        <v>38</v>
-      </c>
-      <c r="F36" s="6">
-        <v>38</v>
-      </c>
-      <c r="G36" s="6">
-        <v>38</v>
-      </c>
-      <c r="H36" s="6">
-        <v>38</v>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>38,38,38,38,38</v>
+        <v>1028,1028,1028,1028,1028</v>
       </c>
       <c r="J36" s="6">
         <v>3471</v>
@@ -3553,24 +3750,24 @@
       <c r="C37" s="6">
         <v>31</v>
       </c>
-      <c r="D37" s="6">
-        <v>39</v>
-      </c>
-      <c r="E37" s="6">
-        <v>39</v>
-      </c>
-      <c r="F37" s="6">
-        <v>39</v>
-      </c>
-      <c r="G37" s="6">
-        <v>39</v>
-      </c>
-      <c r="H37" s="6">
-        <v>39</v>
+      <c r="D37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>39,39,39,39,39</v>
+        <v>1029,1029,1029,1029,1029</v>
       </c>
       <c r="J37" s="6">
         <v>3772</v>
@@ -3599,24 +3796,24 @@
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="6">
-        <v>40</v>
-      </c>
-      <c r="E38" s="6">
-        <v>40</v>
-      </c>
-      <c r="F38" s="6">
-        <v>40</v>
-      </c>
-      <c r="G38" s="6">
-        <v>40</v>
-      </c>
-      <c r="H38" s="6">
-        <v>40</v>
+      <c r="D38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>40,40,40,40,40</v>
+        <v>1030,1030,1030,1030,1030</v>
       </c>
       <c r="J38" s="6">
         <v>4087</v>
@@ -3645,24 +3842,24 @@
       <c r="C39" s="6">
         <v>33</v>
       </c>
-      <c r="D39" s="6">
-        <v>41</v>
-      </c>
-      <c r="E39" s="6">
-        <v>41</v>
-      </c>
-      <c r="F39" s="6">
-        <v>41</v>
-      </c>
-      <c r="G39" s="6">
-        <v>41</v>
-      </c>
-      <c r="H39" s="6">
-        <v>41</v>
+      <c r="D39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>41,41,41,41,41</v>
+        <v>1031,1031,1031,1031,1031</v>
       </c>
       <c r="J39" s="6">
         <v>4419</v>
@@ -3691,24 +3888,24 @@
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="6">
-        <v>42</v>
-      </c>
-      <c r="E40" s="6">
-        <v>42</v>
-      </c>
-      <c r="F40" s="6">
-        <v>42</v>
-      </c>
-      <c r="G40" s="6">
-        <v>42</v>
-      </c>
-      <c r="H40" s="6">
-        <v>42</v>
+      <c r="D40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>42,42,42,42,42</v>
+        <v>1032,1032,1032,1032,1032</v>
       </c>
       <c r="J40" s="6">
         <v>4766</v>
@@ -3737,24 +3934,24 @@
       <c r="C41" s="6">
         <v>35</v>
       </c>
-      <c r="D41" s="6">
-        <v>43</v>
-      </c>
-      <c r="E41" s="6">
-        <v>43</v>
-      </c>
-      <c r="F41" s="6">
-        <v>43</v>
-      </c>
-      <c r="G41" s="6">
-        <v>43</v>
-      </c>
-      <c r="H41" s="6">
-        <v>43</v>
+      <c r="D41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>43,43,43,43,43</v>
+        <v>1033,1033,1033,1033,1033</v>
       </c>
       <c r="J41" s="6">
         <v>5130</v>
@@ -3783,24 +3980,24 @@
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="6">
-        <v>44</v>
-      </c>
-      <c r="E42" s="6">
-        <v>44</v>
-      </c>
-      <c r="F42" s="6">
-        <v>44</v>
-      </c>
-      <c r="G42" s="6">
-        <v>44</v>
-      </c>
-      <c r="H42" s="6">
-        <v>44</v>
+      <c r="D42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>44,44,44,44,44</v>
+        <v>1034,1034,1034,1034,1034</v>
       </c>
       <c r="J42" s="6">
         <v>5510</v>
@@ -3829,24 +4026,24 @@
       <c r="C43" s="6">
         <v>37</v>
       </c>
-      <c r="D43" s="6">
-        <v>45</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45</v>
-      </c>
-      <c r="F43" s="6">
-        <v>45</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45</v>
-      </c>
-      <c r="H43" s="6">
-        <v>45</v>
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>45,45,45,45,45</v>
+        <v>1035,1035,1035,1035,1035</v>
       </c>
       <c r="J43" s="6">
         <v>5907</v>
@@ -3875,24 +4072,24 @@
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="6">
-        <v>46</v>
-      </c>
-      <c r="E44" s="6">
-        <v>46</v>
-      </c>
-      <c r="F44" s="6">
-        <v>46</v>
-      </c>
-      <c r="G44" s="6">
-        <v>46</v>
-      </c>
-      <c r="H44" s="6">
-        <v>46</v>
+      <c r="D44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>46,46,46,46,46</v>
+        <v>1036,1036,1036,1036,1036</v>
       </c>
       <c r="J44" s="6">
         <v>6320</v>
@@ -3921,24 +4118,24 @@
       <c r="C45" s="6">
         <v>39</v>
       </c>
-      <c r="D45" s="6">
-        <v>47</v>
-      </c>
-      <c r="E45" s="6">
-        <v>47</v>
-      </c>
-      <c r="F45" s="6">
-        <v>47</v>
-      </c>
-      <c r="G45" s="6">
-        <v>47</v>
-      </c>
-      <c r="H45" s="6">
-        <v>47</v>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" ref="I45:I71" si="3">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
-        <v>47,47,47,47,47</v>
+        <v>1037,1037,1037,1037,1037</v>
       </c>
       <c r="J45" s="6">
         <v>6751</v>
@@ -3967,24 +4164,24 @@
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="6">
-        <v>48</v>
-      </c>
-      <c r="E46" s="6">
-        <v>48</v>
-      </c>
-      <c r="F46" s="6">
-        <v>48</v>
-      </c>
-      <c r="G46" s="6">
-        <v>48</v>
-      </c>
-      <c r="H46" s="6">
-        <v>48</v>
+      <c r="D46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>48,48,48,48,48</v>
+        <v>1038,1038,1038,1038,1038</v>
       </c>
       <c r="J46" s="6">
         <v>7198</v>
@@ -4013,24 +4210,24 @@
       <c r="C47" s="6">
         <v>41</v>
       </c>
-      <c r="D47" s="6">
-        <v>49</v>
-      </c>
-      <c r="E47" s="6">
-        <v>49</v>
-      </c>
-      <c r="F47" s="6">
-        <v>49</v>
-      </c>
-      <c r="G47" s="6">
-        <v>49</v>
-      </c>
-      <c r="H47" s="6">
-        <v>49</v>
+      <c r="D47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>49,49,49,49,49</v>
+        <v>1039,1039,1039,1039,1039</v>
       </c>
       <c r="J47" s="6">
         <v>7664</v>
@@ -4059,24 +4256,24 @@
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="6">
-        <v>50</v>
-      </c>
-      <c r="E48" s="6">
-        <v>50</v>
-      </c>
-      <c r="F48" s="6">
-        <v>50</v>
-      </c>
-      <c r="G48" s="6">
-        <v>50</v>
-      </c>
-      <c r="H48" s="6">
-        <v>50</v>
+      <c r="D48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>50,50,50,50,50</v>
+        <v>1040,1040,1040,1040,1040</v>
       </c>
       <c r="J48" s="6">
         <v>8147</v>
@@ -4105,24 +4302,24 @@
       <c r="C49" s="6">
         <v>43</v>
       </c>
-      <c r="D49" s="6">
-        <v>51</v>
-      </c>
-      <c r="E49" s="6">
-        <v>51</v>
-      </c>
-      <c r="F49" s="6">
-        <v>51</v>
-      </c>
-      <c r="G49" s="6">
-        <v>51</v>
-      </c>
-      <c r="H49" s="6">
-        <v>51</v>
+      <c r="D49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>51,51,51,51,51</v>
+        <v>1041,1041,1041,1041,1041</v>
       </c>
       <c r="J49" s="6">
         <v>8649</v>
@@ -4151,24 +4348,24 @@
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="6">
-        <v>52</v>
-      </c>
-      <c r="E50" s="6">
-        <v>52</v>
-      </c>
-      <c r="F50" s="6">
-        <v>52</v>
-      </c>
-      <c r="G50" s="6">
-        <v>52</v>
-      </c>
-      <c r="H50" s="6">
-        <v>52</v>
+      <c r="D50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>52,52,52,52,52</v>
+        <v>1042,1042,1042,1042,1042</v>
       </c>
       <c r="J50" s="6">
         <v>9168</v>
@@ -4197,24 +4394,24 @@
       <c r="C51" s="6">
         <v>45</v>
       </c>
-      <c r="D51" s="6">
-        <v>53</v>
-      </c>
-      <c r="E51" s="6">
-        <v>53</v>
-      </c>
-      <c r="F51" s="6">
-        <v>53</v>
-      </c>
-      <c r="G51" s="6">
-        <v>53</v>
-      </c>
-      <c r="H51" s="6">
-        <v>53</v>
+      <c r="D51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>53,53,53,53,53</v>
+        <v>1043,1043,1043,1043,1043</v>
       </c>
       <c r="J51" s="6">
         <v>9706</v>
@@ -4243,24 +4440,24 @@
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="6">
-        <v>54</v>
-      </c>
-      <c r="E52" s="6">
-        <v>54</v>
-      </c>
-      <c r="F52" s="6">
-        <v>54</v>
-      </c>
-      <c r="G52" s="6">
-        <v>54</v>
-      </c>
-      <c r="H52" s="6">
-        <v>54</v>
+      <c r="D52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>54,54,54,54,54</v>
+        <v>1044,1044,1044,1044,1044</v>
       </c>
       <c r="J52" s="6">
         <v>10263</v>
@@ -4289,24 +4486,24 @@
       <c r="C53" s="6">
         <v>47</v>
       </c>
-      <c r="D53" s="6">
-        <v>55</v>
-      </c>
-      <c r="E53" s="6">
-        <v>55</v>
-      </c>
-      <c r="F53" s="6">
-        <v>55</v>
-      </c>
-      <c r="G53" s="6">
-        <v>55</v>
-      </c>
-      <c r="H53" s="6">
-        <v>55</v>
+      <c r="D53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>55,55,55,55,55</v>
+        <v>1045,1045,1045,1045,1045</v>
       </c>
       <c r="J53" s="6">
         <v>10838</v>
@@ -4335,24 +4532,24 @@
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="6">
-        <v>56</v>
-      </c>
-      <c r="E54" s="6">
-        <v>56</v>
-      </c>
-      <c r="F54" s="6">
-        <v>56</v>
-      </c>
-      <c r="G54" s="6">
-        <v>56</v>
-      </c>
-      <c r="H54" s="6">
-        <v>56</v>
+      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>56,56,56,56,56</v>
+        <v>1046,1046,1046,1046,1046</v>
       </c>
       <c r="J54" s="6">
         <v>11433</v>
@@ -4381,24 +4578,24 @@
       <c r="C55" s="6">
         <v>49</v>
       </c>
-      <c r="D55" s="6">
-        <v>57</v>
-      </c>
-      <c r="E55" s="6">
-        <v>57</v>
-      </c>
-      <c r="F55" s="6">
-        <v>57</v>
-      </c>
-      <c r="G55" s="6">
-        <v>57</v>
-      </c>
-      <c r="H55" s="6">
-        <v>57</v>
+      <c r="D55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>57,57,57,57,57</v>
+        <v>1047,1047,1047,1047,1047</v>
       </c>
       <c r="J55" s="6">
         <v>12046</v>
@@ -4427,24 +4624,24 @@
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="6">
-        <v>58</v>
-      </c>
-      <c r="E56" s="6">
-        <v>58</v>
-      </c>
-      <c r="F56" s="6">
-        <v>58</v>
-      </c>
-      <c r="G56" s="6">
-        <v>58</v>
-      </c>
-      <c r="H56" s="6">
-        <v>58</v>
+      <c r="D56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>58,58,58,58,58</v>
+        <v>1048,1048,1048,1048,1048</v>
       </c>
       <c r="J56" s="6">
         <v>12680</v>
@@ -4473,24 +4670,24 @@
       <c r="C57" s="6">
         <v>51</v>
       </c>
-      <c r="D57" s="6">
-        <v>59</v>
-      </c>
-      <c r="E57" s="6">
-        <v>59</v>
-      </c>
-      <c r="F57" s="6">
-        <v>59</v>
-      </c>
-      <c r="G57" s="6">
-        <v>59</v>
-      </c>
-      <c r="H57" s="6">
-        <v>59</v>
+      <c r="D57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>59,59,59,59,59</v>
+        <v>1049,1049,1049,1049,1049</v>
       </c>
       <c r="J57" s="6">
         <v>13333</v>
@@ -4519,24 +4716,24 @@
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="6">
-        <v>60</v>
-      </c>
-      <c r="E58" s="6">
-        <v>60</v>
-      </c>
-      <c r="F58" s="6">
-        <v>60</v>
-      </c>
-      <c r="G58" s="6">
-        <v>60</v>
-      </c>
-      <c r="H58" s="6">
-        <v>60</v>
+      <c r="D58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>60,60,60,60,60</v>
+        <v>1050,1050,1050,1050,1050</v>
       </c>
       <c r="J58" s="6">
         <v>14006</v>
@@ -4565,24 +4762,24 @@
       <c r="C59" s="6">
         <v>53</v>
       </c>
-      <c r="D59" s="6">
-        <v>61</v>
-      </c>
-      <c r="E59" s="6">
-        <v>61</v>
-      </c>
-      <c r="F59" s="6">
-        <v>61</v>
-      </c>
-      <c r="G59" s="6">
-        <v>61</v>
-      </c>
-      <c r="H59" s="6">
-        <v>61</v>
+      <c r="D59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>61,61,61,61,61</v>
+        <v>1051,1051,1051,1051,1051</v>
       </c>
       <c r="J59" s="6">
         <v>14699</v>
@@ -4611,24 +4808,24 @@
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="6">
-        <v>62</v>
-      </c>
-      <c r="E60" s="6">
-        <v>62</v>
-      </c>
-      <c r="F60" s="6">
-        <v>62</v>
-      </c>
-      <c r="G60" s="6">
-        <v>62</v>
-      </c>
-      <c r="H60" s="6">
-        <v>62</v>
+      <c r="D60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="I60" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>62,62,62,62,62</v>
+        <v>1052,1052,1052,1052,1052</v>
       </c>
       <c r="J60" s="6">
         <v>15412</v>
@@ -4657,24 +4854,24 @@
       <c r="C61" s="6">
         <v>55</v>
       </c>
-      <c r="D61" s="6">
-        <v>63</v>
-      </c>
-      <c r="E61" s="6">
-        <v>63</v>
-      </c>
-      <c r="F61" s="6">
-        <v>63</v>
-      </c>
-      <c r="G61" s="6">
-        <v>63</v>
-      </c>
-      <c r="H61" s="6">
-        <v>63</v>
+      <c r="D61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>63,63,63,63,63</v>
+        <v>1053,1053,1053,1053,1053</v>
       </c>
       <c r="J61" s="6">
         <v>16146</v>
@@ -4703,24 +4900,24 @@
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="6">
-        <v>64</v>
-      </c>
-      <c r="E62" s="6">
-        <v>64</v>
-      </c>
-      <c r="F62" s="6">
-        <v>64</v>
-      </c>
-      <c r="G62" s="6">
-        <v>64</v>
-      </c>
-      <c r="H62" s="6">
-        <v>64</v>
+      <c r="D62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>64,64,64,64,64</v>
+        <v>1054,1054,1054,1054,1054</v>
       </c>
       <c r="J62" s="6">
         <v>16900</v>
@@ -4749,24 +4946,24 @@
       <c r="C63" s="6">
         <v>57</v>
       </c>
-      <c r="D63" s="6">
-        <v>65</v>
-      </c>
-      <c r="E63" s="6">
-        <v>65</v>
-      </c>
-      <c r="F63" s="6">
-        <v>65</v>
-      </c>
-      <c r="G63" s="6">
-        <v>65</v>
-      </c>
-      <c r="H63" s="6">
-        <v>65</v>
+      <c r="D63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>65,65,65,65,65</v>
+        <v>1055,1055,1055,1055,1055</v>
       </c>
       <c r="J63" s="6">
         <v>17675</v>
@@ -4795,24 +4992,24 @@
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="6">
-        <v>66</v>
-      </c>
-      <c r="E64" s="6">
-        <v>66</v>
-      </c>
-      <c r="F64" s="6">
-        <v>66</v>
-      </c>
-      <c r="G64" s="6">
-        <v>66</v>
-      </c>
-      <c r="H64" s="6">
-        <v>66</v>
+      <c r="D64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>66,66,66,66,66</v>
+        <v>1056,1056,1056,1056,1056</v>
       </c>
       <c r="J64" s="6">
         <v>18472</v>
@@ -4841,24 +5038,24 @@
       <c r="C65" s="6">
         <v>59</v>
       </c>
-      <c r="D65" s="6">
-        <v>67</v>
-      </c>
-      <c r="E65" s="6">
-        <v>67</v>
-      </c>
-      <c r="F65" s="6">
-        <v>67</v>
-      </c>
-      <c r="G65" s="6">
-        <v>67</v>
-      </c>
-      <c r="H65" s="6">
-        <v>67</v>
+      <c r="D65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I65" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>67,67,67,67,67</v>
+        <v>1057,1057,1057,1057,1057</v>
       </c>
       <c r="J65" s="6">
         <v>19289</v>
@@ -4887,24 +5084,24 @@
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="6">
-        <v>68</v>
-      </c>
-      <c r="E66" s="6">
-        <v>68</v>
-      </c>
-      <c r="F66" s="6">
-        <v>68</v>
-      </c>
-      <c r="G66" s="6">
-        <v>68</v>
-      </c>
-      <c r="H66" s="6">
-        <v>68</v>
+      <c r="D66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="I66" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>68,68,68,68,68</v>
+        <v>1058,1058,1058,1058,1058</v>
       </c>
       <c r="J66" s="6">
         <v>20128</v>
@@ -4933,24 +5130,24 @@
       <c r="C67" s="6">
         <v>61</v>
       </c>
-      <c r="D67" s="6">
-        <v>69</v>
-      </c>
-      <c r="E67" s="6">
-        <v>69</v>
-      </c>
-      <c r="F67" s="6">
-        <v>69</v>
-      </c>
-      <c r="G67" s="6">
-        <v>69</v>
-      </c>
-      <c r="H67" s="6">
-        <v>69</v>
+      <c r="D67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I67" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>69,69,69,69,69</v>
+        <v>1059,1059,1059,1059,1059</v>
       </c>
       <c r="J67" s="6">
         <v>20989</v>
@@ -4979,24 +5176,24 @@
       <c r="C68" s="1">
         <v>62</v>
       </c>
-      <c r="D68" s="6">
-        <v>70</v>
-      </c>
-      <c r="E68" s="6">
-        <v>70</v>
-      </c>
-      <c r="F68" s="6">
-        <v>70</v>
-      </c>
-      <c r="G68" s="6">
-        <v>70</v>
-      </c>
-      <c r="H68" s="6">
-        <v>70</v>
+      <c r="D68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I68" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>70,70,70,70,70</v>
+        <v>1060,1060,1060,1060,1060</v>
       </c>
       <c r="J68" s="6">
         <v>21871</v>
@@ -5025,24 +5222,24 @@
       <c r="C69" s="6">
         <v>63</v>
       </c>
-      <c r="D69" s="6">
-        <v>71</v>
-      </c>
-      <c r="E69" s="6">
-        <v>71</v>
-      </c>
-      <c r="F69" s="6">
-        <v>71</v>
-      </c>
-      <c r="G69" s="6">
-        <v>71</v>
-      </c>
-      <c r="H69" s="6">
-        <v>71</v>
+      <c r="D69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="I69" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>71,71,71,71,71</v>
+        <v>1061,1061,1061,1061,1061</v>
       </c>
       <c r="J69" s="6">
         <v>22775</v>
@@ -5071,24 +5268,24 @@
       <c r="C70" s="1">
         <v>64</v>
       </c>
-      <c r="D70" s="6">
-        <v>72</v>
-      </c>
-      <c r="E70" s="6">
-        <v>72</v>
-      </c>
-      <c r="F70" s="6">
-        <v>72</v>
-      </c>
-      <c r="G70" s="6">
-        <v>72</v>
-      </c>
-      <c r="H70" s="6">
-        <v>72</v>
+      <c r="D70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I70" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>72,72,72,72,72</v>
+        <v>1062,1062,1062,1062,1062</v>
       </c>
       <c r="J70" s="6">
         <v>23702</v>
@@ -5117,24 +5314,24 @@
       <c r="C71" s="6">
         <v>65</v>
       </c>
-      <c r="D71" s="6">
-        <v>73</v>
-      </c>
-      <c r="E71" s="6">
-        <v>73</v>
-      </c>
-      <c r="F71" s="6">
-        <v>73</v>
-      </c>
-      <c r="G71" s="6">
-        <v>73</v>
-      </c>
-      <c r="H71" s="6">
-        <v>73</v>
+      <c r="D71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="I71" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>73,73,73,73,73</v>
+        <v>1063,1063,1063,1063,1063</v>
       </c>
       <c r="J71" s="6">
         <v>24651</v>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31340" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -28,7 +28,7 @@
     <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
-    <t>升到此等级所需经验值</t>
+    <t>升到此等级所需累计经验值</t>
   </si>
   <si>
     <t>关联GlobalConfig表EquipPromoteLevelLimit对应账号等级限制</t>
@@ -70,19 +70,19 @@
     <t>不同品质消耗id</t>
   </si>
   <si>
-    <t>白装升级经验</t>
-  </si>
-  <si>
-    <t>绿装升级经验</t>
-  </si>
-  <si>
-    <t>蓝装升级经验</t>
-  </si>
-  <si>
-    <t>紫装升级经验</t>
-  </si>
-  <si>
-    <t>橙装升级经验</t>
+    <t>白装升级累计经验</t>
+  </si>
+  <si>
+    <t>绿装升级累计经验</t>
+  </si>
+  <si>
+    <t>蓝装升级累计经验</t>
+  </si>
+  <si>
+    <t>紫装升级累计经验</t>
+  </si>
+  <si>
+    <t>橙装升级累计经验</t>
   </si>
   <si>
     <t>不同品质升级所需经验值</t>
@@ -301,8 +301,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -326,17 +326,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,52 +384,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,25 +402,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,11 +415,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,17 +461,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,25 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,19 +563,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +623,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,61 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,8 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,56 +725,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -809,151 +759,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,65 +962,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2168,29 +2168,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.2333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.925" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85" style="1" customWidth="1"/>
-    <col min="11" max="14" width="12.925" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.2307692307692" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6923076923077" style="1" customWidth="1"/>
+    <col min="11" max="14" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5384615384615" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.375" style="1" customWidth="1"/>
     <col min="17" max="16360" width="19.25" style="1" customWidth="1"/>
     <col min="16361" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:16">
+    <row r="1" ht="16.8" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="49.5" spans="1:16">
+    <row r="2" ht="58" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2221,8 +2221,8 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2245,26 +2245,26 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2273,46 +2273,46 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2321,94 +2321,94 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" ref="I7:I12" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="O7" s="6" t="str">
+      <c r="O7" s="5" t="str">
         <f t="shared" ref="O7:O70" si="1">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2416,32 +2416,32 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1000,1000,1000,1000,1000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>75</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>101</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>126</v>
       </c>
       <c r="M8" s="1">
@@ -2450,7 +2450,7 @@
       <c r="N8" s="1">
         <v>202</v>
       </c>
-      <c r="O8" s="6" t="str">
+      <c r="O8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>75,101,126,151,202</v>
       </c>
@@ -2459,48 +2459,48 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:16">
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1001,1001,1001,1001,1001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>79</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>105</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>132</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>158</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>211</v>
       </c>
-      <c r="O9" s="6" t="str">
+      <c r="O9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>79,105,132,158,211</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2508,32 +2508,32 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1002,1002,1002,1002,1002</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>86</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>115</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>144</v>
       </c>
       <c r="M10" s="1">
@@ -2542,7 +2542,7 @@
       <c r="N10" s="1">
         <v>231</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="O10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>86,115,144,173,231</v>
       </c>
@@ -2551,48 +2551,48 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:16">
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1003,1003,1003,1003,1003</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>99</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>132</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>165</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>198</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>264</v>
       </c>
-      <c r="O11" s="6" t="str">
+      <c r="O11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>99,132,165,198,264</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2600,32 +2600,32 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004,1004,1004,1004,1004</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>116</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>155</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>194</v>
       </c>
       <c r="M12" s="1">
@@ -2634,7 +2634,7 @@
       <c r="N12" s="1">
         <v>311</v>
       </c>
-      <c r="O12" s="6" t="str">
+      <c r="O12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>116,155,194,233,311</v>
       </c>
@@ -2643,48 +2643,48 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:16">
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>7</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" ref="I13:I44" si="2">D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
         <v>1005,1005,1005,1005,1005</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>141</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>188</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>235</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>282</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>376</v>
       </c>
-      <c r="O13" s="6" t="str">
+      <c r="O13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>141,188,235,282,376</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2692,32 +2692,32 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1006,1006,1006,1006,1006</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>172</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>229</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>287</v>
       </c>
       <c r="M14" s="1">
@@ -2726,7 +2726,7 @@
       <c r="N14" s="1">
         <v>459</v>
       </c>
-      <c r="O14" s="6" t="str">
+      <c r="O14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>172,229,287,344,459</v>
       </c>
@@ -2735,48 +2735,48 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:16">
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1007,1007,1007,1007,1007</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>210</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>281</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>351</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>421</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>562</v>
       </c>
-      <c r="O15" s="6" t="str">
+      <c r="O15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>210,281,351,421,562</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1008,1008,1008,1008,1008</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>257</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>343</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>428</v>
       </c>
       <c r="M16" s="1">
@@ -2818,7 +2818,7 @@
       <c r="N16" s="1">
         <v>686</v>
       </c>
-      <c r="O16" s="6" t="str">
+      <c r="O16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>257,343,428,514,686</v>
       </c>
@@ -2827,48 +2827,48 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:16">
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1009,1009,1009,1009,1009</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>312</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>416</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>520</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>624</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>832</v>
       </c>
-      <c r="O17" s="6" t="str">
+      <c r="O17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>312,416,520,624,832</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2876,32 +2876,32 @@
       <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1010,1010,1010,1010,1010</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>375</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>501</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>626</v>
       </c>
       <c r="M18" s="1">
@@ -2910,7 +2910,7 @@
       <c r="N18" s="1">
         <v>1002</v>
       </c>
-      <c r="O18" s="6" t="str">
+      <c r="O18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>375,501,626,751,1002</v>
       </c>
@@ -2919,48 +2919,48 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:16">
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1011,1011,1011,1011,1011</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>449</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>598</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>748</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>898</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>1197</v>
       </c>
-      <c r="O19" s="6" t="str">
+      <c r="O19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>449,598,748,898,1197</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2968,32 +2968,32 @@
       <c r="C20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1012,1012,1012,1012,1012</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>532</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>709</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>886</v>
       </c>
       <c r="M20" s="1">
@@ -3002,7 +3002,7 @@
       <c r="N20" s="1">
         <v>1418</v>
       </c>
-      <c r="O20" s="6" t="str">
+      <c r="O20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>532,709,886,1064,1418</v>
       </c>
@@ -3011,48 +3011,48 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:16">
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1013,1013,1013,1013,1013</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>625</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>833</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>1041</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>1250</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>1666</v>
       </c>
-      <c r="O21" s="6" t="str">
+      <c r="O21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>625,833,1041,1250,1666</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3060,32 +3060,32 @@
       <c r="C22" s="1">
         <v>16</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1014,1014,1014,1014,1014</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>728</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>971</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>1214</v>
       </c>
       <c r="M22" s="1">
@@ -3094,7 +3094,7 @@
       <c r="N22" s="1">
         <v>1942</v>
       </c>
-      <c r="O22" s="6" t="str">
+      <c r="O22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>728,971,1214,1457,1942</v>
       </c>
@@ -3103,44 +3103,44 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:16">
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>17</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1015,1015,1015,1015,1015</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>843</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>1124</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>1405</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>1686</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>2248</v>
       </c>
-      <c r="O23" s="6" t="str">
+      <c r="O23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>843,1124,1405,1686,2248</v>
       </c>
@@ -3152,32 +3152,32 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1016,1016,1016,1016,1016</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>968</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>1291</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>1614</v>
       </c>
       <c r="M24" s="1">
@@ -3186,7 +3186,7 @@
       <c r="N24" s="1">
         <v>2583</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>968,1291,1614,1937,2583</v>
       </c>
@@ -3195,44 +3195,44 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:16">
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1017,1017,1017,1017,1017</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>1105</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>1474</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>1843</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>2211</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>2949</v>
       </c>
-      <c r="O25" s="6" t="str">
+      <c r="O25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1105,1474,1843,2211,2949</v>
       </c>
@@ -3244,32 +3244,32 @@
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1018,1018,1018,1018,1018</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>1255</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>1673</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>2091</v>
       </c>
       <c r="M26" s="1">
@@ -3278,7 +3278,7 @@
       <c r="N26" s="1">
         <v>3347</v>
       </c>
-      <c r="O26" s="6" t="str">
+      <c r="O26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1255,1673,2091,2510,3347</v>
       </c>
@@ -3287,44 +3287,44 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:16">
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>21</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1019,1019,1019,1019,1019</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>1416</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>1888</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>2361</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>2833</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>3777</v>
       </c>
-      <c r="O27" s="6" t="str">
+      <c r="O27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1416,1888,2361,2833,3777</v>
       </c>
@@ -3336,32 +3336,32 @@
       <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1020,1020,1020,1020,1020</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>1590</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>2120</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>2651</v>
       </c>
       <c r="M28" s="1">
@@ -3370,7 +3370,7 @@
       <c r="N28" s="1">
         <v>4241</v>
       </c>
-      <c r="O28" s="6" t="str">
+      <c r="O28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1590,2120,2651,3181,4241</v>
       </c>
@@ -3379,44 +3379,44 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>23</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1021,1021,1021,1021,1021</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>1777</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>2370</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>2962</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>3555</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>4740</v>
       </c>
-      <c r="O29" s="6" t="str">
+      <c r="O29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1777,2370,2962,3555,4740</v>
       </c>
@@ -3428,32 +3428,32 @@
       <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1022,1022,1022,1022,1022</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>1977</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>2636</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>3296</v>
       </c>
       <c r="M30" s="1">
@@ -3462,7 +3462,7 @@
       <c r="N30" s="1">
         <v>5273</v>
       </c>
-      <c r="O30" s="6" t="str">
+      <c r="O30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>1977,2636,3296,3955,5273</v>
       </c>
@@ -3471,44 +3471,44 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:16">
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>25</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1023,1023,1023,1023,1023</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>2191</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>2921</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>3652</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>4382</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>5843</v>
       </c>
-      <c r="O31" s="6" t="str">
+      <c r="O31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>2191,2921,3652,4382,5843</v>
       </c>
@@ -3520,32 +3520,32 @@
       <c r="C32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1024,1024,1024,1024,1024</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>2418</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>3225</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>4031</v>
       </c>
       <c r="M32" s="1">
@@ -3554,7 +3554,7 @@
       <c r="N32" s="1">
         <v>6450</v>
       </c>
-      <c r="O32" s="6" t="str">
+      <c r="O32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>2418,3225,4031,4837,6450</v>
       </c>
@@ -3563,44 +3563,44 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:16">
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>27</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1025,1025,1025,1025,1025</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>2660</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>3546</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>4433</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>5320</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>7093</v>
       </c>
-      <c r="O33" s="6" t="str">
+      <c r="O33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>2660,3546,4433,5320,7093</v>
       </c>
@@ -3612,32 +3612,32 @@
       <c r="C34" s="1">
         <v>28</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1026,1026,1026,1026,1026</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>2915</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>3887</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>4859</v>
       </c>
       <c r="M34" s="1">
@@ -3646,7 +3646,7 @@
       <c r="N34" s="1">
         <v>7775</v>
       </c>
-      <c r="O34" s="6" t="str">
+      <c r="O34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>2915,3887,4859,5831,7775</v>
       </c>
@@ -3655,44 +3655,44 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>29</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1027,1027,1027,1027,1027</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>3186</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>4248</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>5310</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <v>6372</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>8497</v>
       </c>
-      <c r="O35" s="6" t="str">
+      <c r="O35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>3186,4248,5310,6372,8497</v>
       </c>
@@ -3704,32 +3704,32 @@
       <c r="C36" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1028,1028,1028,1028,1028</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>3471</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>4628</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>5786</v>
       </c>
       <c r="M36" s="1">
@@ -3738,7 +3738,7 @@
       <c r="N36" s="1">
         <v>9257</v>
       </c>
-      <c r="O36" s="6" t="str">
+      <c r="O36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>3471,4628,5786,6943,9257</v>
       </c>
@@ -3747,44 +3747,44 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>31</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="I37" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1029,1029,1029,1029,1029</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>3772</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>5029</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>6286</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <v>7544</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <v>10059</v>
       </c>
-      <c r="O37" s="6" t="str">
+      <c r="O37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>3772,5029,6286,7544,10059</v>
       </c>
@@ -3796,32 +3796,32 @@
       <c r="C38" s="1">
         <v>32</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1030,1030,1030,1030,1030</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>4087</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>5450</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>6813</v>
       </c>
       <c r="M38" s="1">
@@ -3830,7 +3830,7 @@
       <c r="N38" s="1">
         <v>10901</v>
       </c>
-      <c r="O38" s="6" t="str">
+      <c r="O38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>4087,5450,6813,8175,10901</v>
       </c>
@@ -3839,44 +3839,44 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>33</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1031,1031,1031,1031,1031</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>4419</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>5892</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>7365</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <v>8838</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <v>11785</v>
       </c>
-      <c r="O39" s="6" t="str">
+      <c r="O39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>4419,5892,7365,8838,11785</v>
       </c>
@@ -3888,32 +3888,32 @@
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1032,1032,1032,1032,1032</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>4766</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>6355</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>7944</v>
       </c>
       <c r="M40" s="1">
@@ -3922,7 +3922,7 @@
       <c r="N40" s="1">
         <v>12711</v>
       </c>
-      <c r="O40" s="6" t="str">
+      <c r="O40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>4766,6355,7944,9533,12711</v>
       </c>
@@ -3931,44 +3931,44 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>35</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1033,1033,1033,1033,1033</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>5130</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>6840</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>8550</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <v>10260</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>13681</v>
       </c>
-      <c r="O41" s="6" t="str">
+      <c r="O41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>5130,6840,8550,10260,13681</v>
       </c>
@@ -3980,32 +3980,32 @@
       <c r="C42" s="1">
         <v>36</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1034,1034,1034,1034,1034</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>5510</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>7347</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>9183</v>
       </c>
       <c r="M42" s="1">
@@ -4014,7 +4014,7 @@
       <c r="N42" s="1">
         <v>14694</v>
       </c>
-      <c r="O42" s="6" t="str">
+      <c r="O42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>5510,7347,9183,11020,14694</v>
       </c>
@@ -4023,44 +4023,44 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>37</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1035,1035,1035,1035,1035</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>5907</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>7876</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>9845</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <v>11814</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>15752</v>
       </c>
-      <c r="O43" s="6" t="str">
+      <c r="O43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>5907,7876,9845,11814,15752</v>
       </c>
@@ -4072,32 +4072,32 @@
       <c r="C44" s="1">
         <v>38</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1036,1036,1036,1036,1036</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>6320</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>8427</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>10534</v>
       </c>
       <c r="M44" s="1">
@@ -4106,7 +4106,7 @@
       <c r="N44" s="1">
         <v>16854</v>
       </c>
-      <c r="O44" s="6" t="str">
+      <c r="O44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>6320,8427,10534,12640,16854</v>
       </c>
@@ -4115,44 +4115,44 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:16">
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>39</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I45" s="5" t="str">
         <f t="shared" ref="I45:I71" si="3">D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
         <v>1037,1037,1037,1037,1037</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>6751</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>9001</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>11251</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <v>13502</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <v>18002</v>
       </c>
-      <c r="O45" s="6" t="str">
+      <c r="O45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>6751,9001,11251,13502,18002</v>
       </c>
@@ -4164,32 +4164,32 @@
       <c r="C46" s="1">
         <v>40</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I46" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1038,1038,1038,1038,1038</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>7198</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>9598</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>11998</v>
       </c>
       <c r="M46" s="1">
@@ -4198,7 +4198,7 @@
       <c r="N46" s="1">
         <v>19197</v>
       </c>
-      <c r="O46" s="6" t="str">
+      <c r="O46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>7198,9598,11998,14397,19197</v>
       </c>
@@ -4207,44 +4207,44 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:16">
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>41</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I47" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1039,1039,1039,1039,1039</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>7664</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>10219</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="5">
         <v>12774</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="5">
         <v>15328</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <v>20438</v>
       </c>
-      <c r="O47" s="6" t="str">
+      <c r="O47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>7664,10219,12774,15328,20438</v>
       </c>
@@ -4256,32 +4256,32 @@
       <c r="C48" s="1">
         <v>42</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I48" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1040,1040,1040,1040,1040</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>8147</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>10863</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="5">
         <v>13579</v>
       </c>
       <c r="M48" s="1">
@@ -4290,7 +4290,7 @@
       <c r="N48" s="1">
         <v>21727</v>
       </c>
-      <c r="O48" s="6" t="str">
+      <c r="O48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>8147,10863,13579,16295,21727</v>
       </c>
@@ -4299,44 +4299,44 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:16">
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I49" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1041,1041,1041,1041,1041</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>8649</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>11532</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="5">
         <v>14415</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="5">
         <v>17298</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>23064</v>
       </c>
-      <c r="O49" s="6" t="str">
+      <c r="O49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>8649,11532,14415,17298,23064</v>
       </c>
@@ -4348,32 +4348,32 @@
       <c r="C50" s="1">
         <v>44</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I50" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1042,1042,1042,1042,1042</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>9168</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>12224</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="5">
         <v>15280</v>
       </c>
       <c r="M50" s="1">
@@ -4382,7 +4382,7 @@
       <c r="N50" s="1">
         <v>24449</v>
       </c>
-      <c r="O50" s="6" t="str">
+      <c r="O50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>9168,12224,15280,18337,24449</v>
       </c>
@@ -4391,44 +4391,44 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:16">
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>45</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I51" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1043,1043,1043,1043,1043</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>9706</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>12941</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="5">
         <v>16177</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="5">
         <v>19412</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <v>25883</v>
       </c>
-      <c r="O51" s="6" t="str">
+      <c r="O51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>9706,12941,16177,19412,25883</v>
       </c>
@@ -4440,32 +4440,32 @@
       <c r="C52" s="1">
         <v>46</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I52" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1044,1044,1044,1044,1044</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>10263</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>13684</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="5">
         <v>17105</v>
       </c>
       <c r="M52" s="1">
@@ -4474,7 +4474,7 @@
       <c r="N52" s="1">
         <v>27368</v>
       </c>
-      <c r="O52" s="6" t="str">
+      <c r="O52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>10263,13684,17105,20526,27368</v>
       </c>
@@ -4483,44 +4483,44 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:16">
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>47</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I53" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1045,1045,1045,1045,1045</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>10838</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>14451</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="5">
         <v>18064</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="5">
         <v>21677</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>28902</v>
       </c>
-      <c r="O53" s="6" t="str">
+      <c r="O53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>10838,14451,18064,21677,28902</v>
       </c>
@@ -4532,32 +4532,32 @@
       <c r="C54" s="1">
         <v>48</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1046,1046,1046,1046,1046</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>11433</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>15244</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="5">
         <v>19055</v>
       </c>
       <c r="M54" s="1">
@@ -4566,7 +4566,7 @@
       <c r="N54" s="1">
         <v>30488</v>
       </c>
-      <c r="O54" s="6" t="str">
+      <c r="O54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>11433,15244,19055,22866,30488</v>
       </c>
@@ -4575,44 +4575,44 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:16">
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>49</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I55" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1047,1047,1047,1047,1047</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>12046</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>16062</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="5">
         <v>20078</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="5">
         <v>24093</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="5">
         <v>32125</v>
       </c>
-      <c r="O55" s="6" t="str">
+      <c r="O55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12046,16062,20078,24093,32125</v>
       </c>
@@ -4624,32 +4624,32 @@
       <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1048,1048,1048,1048,1048</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>12680</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>16907</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="5">
         <v>21133</v>
       </c>
       <c r="M56" s="1">
@@ -4658,7 +4658,7 @@
       <c r="N56" s="1">
         <v>33814</v>
       </c>
-      <c r="O56" s="6" t="str">
+      <c r="O56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12680,16907,21133,25360,33814</v>
       </c>
@@ -4667,44 +4667,44 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:16">
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>51</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I57" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1049,1049,1049,1049,1049</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>13333</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>17777</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="5">
         <v>22222</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="5">
         <v>26666</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="5">
         <v>35555</v>
       </c>
-      <c r="O57" s="6" t="str">
+      <c r="O57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>13333,17777,22222,26666,35555</v>
       </c>
@@ -4716,32 +4716,32 @@
       <c r="C58" s="1">
         <v>52</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1050,1050,1050,1050,1050</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>14006</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>18674</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="5">
         <v>23343</v>
       </c>
       <c r="M58" s="1">
@@ -4750,7 +4750,7 @@
       <c r="N58" s="1">
         <v>37349</v>
       </c>
-      <c r="O58" s="6" t="str">
+      <c r="O58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>14006,18674,23343,28012,37349</v>
       </c>
@@ -4759,44 +4759,44 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:16">
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>53</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1051,1051,1051,1051,1051</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>14699</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>19598</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>24498</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="5">
         <v>29398</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <v>39197</v>
       </c>
-      <c r="O59" s="6" t="str">
+      <c r="O59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>14699,19598,24498,29398,39197</v>
       </c>
@@ -4808,32 +4808,32 @@
       <c r="C60" s="1">
         <v>54</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1052,1052,1052,1052,1052</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>15412</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>20549</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>25687</v>
       </c>
       <c r="M60" s="1">
@@ -4842,7 +4842,7 @@
       <c r="N60" s="1">
         <v>41099</v>
       </c>
-      <c r="O60" s="6" t="str">
+      <c r="O60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>15412,20549,25687,30824,41099</v>
       </c>
@@ -4851,44 +4851,44 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:16">
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>55</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1053,1053,1053,1053,1053</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>16146</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>21528</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>26910</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="5">
         <v>32292</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="5">
         <v>43056</v>
       </c>
-      <c r="O61" s="6" t="str">
+      <c r="O61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>16146,21528,26910,32292,43056</v>
       </c>
@@ -4900,32 +4900,32 @@
       <c r="C62" s="1">
         <v>56</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1054,1054,1054,1054,1054</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <v>16900</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>22534</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="5">
         <v>28167</v>
       </c>
       <c r="M62" s="1">
@@ -4934,7 +4934,7 @@
       <c r="N62" s="1">
         <v>45068</v>
       </c>
-      <c r="O62" s="6" t="str">
+      <c r="O62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>16900,22534,28167,33801,45068</v>
       </c>
@@ -4943,44 +4943,44 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:16">
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>57</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1055,1055,1055,1055,1055</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>17675</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>23567</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="5">
         <v>29459</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="5">
         <v>35351</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="5">
         <v>47135</v>
       </c>
-      <c r="O63" s="6" t="str">
+      <c r="O63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17675,23567,29459,35351,47135</v>
       </c>
@@ -4992,32 +4992,32 @@
       <c r="C64" s="1">
         <v>58</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1056,1056,1056,1056,1056</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>18472</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>24629</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="5">
         <v>30786</v>
       </c>
       <c r="M64" s="1">
@@ -5026,7 +5026,7 @@
       <c r="N64" s="1">
         <v>49258</v>
       </c>
-      <c r="O64" s="6" t="str">
+      <c r="O64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>18472,24629,30786,36944,49258</v>
       </c>
@@ -5035,44 +5035,44 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:16">
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>59</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1057,1057,1057,1057,1057</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>19289</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>25719</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="5">
         <v>32149</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="5">
         <v>38579</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N65" s="5">
         <v>51438</v>
       </c>
-      <c r="O65" s="6" t="str">
+      <c r="O65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>19289,25719,32149,38579,51438</v>
       </c>
@@ -5084,32 +5084,32 @@
       <c r="C66" s="1">
         <v>60</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1058,1058,1058,1058,1058</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <v>20128</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>26838</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="5">
         <v>33547</v>
       </c>
       <c r="M66" s="1">
@@ -5118,7 +5118,7 @@
       <c r="N66" s="1">
         <v>53676</v>
       </c>
-      <c r="O66" s="6" t="str">
+      <c r="O66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>20128,26838,33547,40257,53676</v>
       </c>
@@ -5127,35 +5127,35 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:16">
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>61</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I67" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1059,1059,1059,1059,1059</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>20989</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>27985</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <v>34981</v>
       </c>
       <c r="M67" s="1">
@@ -5164,7 +5164,7 @@
       <c r="N67" s="1">
         <v>55970</v>
       </c>
-      <c r="O67" s="6" t="str">
+      <c r="O67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>20989,27985,34981,41978,55970</v>
       </c>
@@ -5176,32 +5176,32 @@
       <c r="C68" s="1">
         <v>62</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I68" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1060,1060,1060,1060,1060</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <v>21871</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>29161</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="5">
         <v>36452</v>
       </c>
       <c r="M68" s="1">
@@ -5210,7 +5210,7 @@
       <c r="N68" s="1">
         <v>58323</v>
       </c>
-      <c r="O68" s="6" t="str">
+      <c r="O68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>21871,29161,36452,43742,58323</v>
       </c>
@@ -5219,35 +5219,35 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:16">
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>63</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I69" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1061,1061,1061,1061,1061</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <v>22775</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>30367</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="5">
         <v>37959</v>
       </c>
       <c r="M69" s="1">
@@ -5256,7 +5256,7 @@
       <c r="N69" s="1">
         <v>60735</v>
       </c>
-      <c r="O69" s="6" t="str">
+      <c r="O69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>22775,30367,37959,45551,60735</v>
       </c>
@@ -5268,32 +5268,32 @@
       <c r="C70" s="1">
         <v>64</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I70" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1062,1062,1062,1062,1062</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <v>23702</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>31602</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="5">
         <v>39503</v>
       </c>
       <c r="M70" s="1">
@@ -5302,7 +5302,7 @@
       <c r="N70" s="1">
         <v>63205</v>
       </c>
-      <c r="O70" s="6" t="str">
+      <c r="O70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>23702,31602,39503,47404,63205</v>
       </c>
@@ -5311,35 +5311,35 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:16">
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>65</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I71" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1063,1063,1063,1063,1063</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <v>24651</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>32868</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="5">
         <v>41085</v>
       </c>
       <c r="M71" s="1">
@@ -5348,7 +5348,7 @@
       <c r="N71" s="1">
         <v>65736</v>
       </c>
-      <c r="O71" s="6" t="str">
+      <c r="O71" s="5" t="str">
         <f>J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71&amp;","&amp;N71</f>
         <v>24651,32868,41085,49302,65736</v>
       </c>

--- a/global/EquipLevelup.xlsx
+++ b/global/EquipLevelup.xlsx
@@ -4,13 +4,67 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1级被吞噬的经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1升2级所需经验</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22,7 +76,7 @@
     <t>装备等级</t>
   </si>
   <si>
-    <t>升到此等级所需累计经验值</t>
+    <t>升到此等级所需经验值</t>
   </si>
   <si>
     <t>此列由前5列自动生成，不用填写</t>
@@ -46,19 +100,19 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>白装升级累计经验</t>
+    <t>白装升级经验</t>
   </si>
   <si>
-    <t>绿装升级累计经验</t>
+    <t>绿装升级经验</t>
   </si>
   <si>
-    <t>蓝装升级累计经验</t>
+    <t>蓝装升级经验</t>
   </si>
   <si>
-    <t>紫装升级累计经验</t>
+    <t>紫装升级经验</t>
   </si>
   <si>
-    <t>橙装升级累计经验</t>
+    <t>橙装升级经验</t>
   </si>
   <si>
     <t>不同品质升级所需经验值</t>
@@ -84,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -109,9 +163,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,20 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -146,14 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,14 +217,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +263,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,12 +307,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -293,13 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,43 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +424,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,67 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,16 +568,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,53 +608,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,16 +646,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,137 +682,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -758,7 +823,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1962,10 +2026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H107"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2007,7 +2071,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2098,11 +2162,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -2111,17 +2173,17 @@
         <v>300</v>
       </c>
       <c r="F7" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G7" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H7" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" ref="I7:I70" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
-        <v>200,300,400,500,600</v>
+        <f t="shared" ref="I7:I69" si="0">D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>200,300,401,501,601</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2129,7 +2191,7 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
@@ -2156,7 +2218,7 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>203</v>
@@ -2183,7 +2245,7 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>210</v>
@@ -2210,7 +2272,7 @@
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>224</v>
@@ -2237,7 +2299,7 @@
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>245</v>
@@ -2264,7 +2326,7 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>275</v>
@@ -2291,7 +2353,7 @@
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>316</v>
@@ -2318,7 +2380,7 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>368</v>
@@ -2345,7 +2407,7 @@
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>434</v>
@@ -2372,7 +2434,7 @@
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C17" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>515</v>
@@ -2399,7 +2461,7 @@
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C18" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>611</v>
@@ -2426,7 +2488,7 @@
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C19" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>725</v>
@@ -2453,7 +2515,7 @@
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C20" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>857</v>
@@ -2480,7 +2542,7 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C21" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>1009</v>
@@ -2507,7 +2569,7 @@
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C22" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1">
         <v>1181</v>
@@ -2534,7 +2596,7 @@
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C23" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>1376</v>
@@ -2561,7 +2623,7 @@
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>1593</v>
@@ -2588,7 +2650,7 @@
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C25" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1">
         <v>1835</v>
@@ -2613,26 +2675,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="1">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
         <v>2103</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>3154</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>4206</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>5257</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>6309</v>
       </c>
-      <c r="I26" s="1" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2103,3154,4206,5257,6309</v>
       </c>
@@ -2640,36 +2702,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="2">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2">
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
         <v>2397</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>3595</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>4794</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>5992</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>7191</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2397,3595,4794,5992,7191</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>2718</v>
@@ -2696,7 +2758,7 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C29" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>3069</v>
@@ -2723,7 +2785,7 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C30" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>3449</v>
@@ -2750,7 +2812,7 @@
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C31" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
         <v>3860</v>
@@ -2777,7 +2839,7 @@
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C32" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1">
         <v>4303</v>
@@ -2804,7 +2866,7 @@
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C33" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1">
         <v>4780</v>
@@ -2831,7 +2893,7 @@
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>5290</v>
@@ -2858,7 +2920,7 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C35" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>5836</v>
@@ -2885,7 +2947,7 @@
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C36" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1">
         <v>6418</v>
@@ -2912,7 +2974,7 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C37" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
         <v>7037</v>
@@ -2939,7 +3001,7 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C38" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>7695</v>
@@ -2966,7 +3028,7 @@
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>8392</v>
@@ -2993,7 +3055,7 @@
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C40" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1">
         <v>9129</v>
@@ -3020,7 +3082,7 @@
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C41" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1">
         <v>9907</v>
@@ -3047,7 +3109,7 @@
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C42" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>10728</v>
@@ -3074,7 +3136,7 @@
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C43" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>11592</v>
@@ -3101,7 +3163,7 @@
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C44" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>12500</v>
@@ -3128,7 +3190,7 @@
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C45" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>13454</v>
@@ -3153,26 +3215,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C46" s="1">
-        <v>39</v>
-      </c>
-      <c r="D46" s="1">
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C46" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2">
         <v>14454</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>21681</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>28908</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>36136</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>43363</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>14454,21681,28908,36136,43363</v>
       </c>
@@ -3180,36 +3242,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C47" s="2">
-        <v>40</v>
-      </c>
-      <c r="D47" s="2">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1">
         <v>15501</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>23252</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>31003</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>38754</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>46504</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="I47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>15501,23252,31003,38754,46504</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C48" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>16597</v>
@@ -3236,7 +3298,7 @@
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C49" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>17741</v>
@@ -3263,7 +3325,7 @@
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C50" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>18936</v>
@@ -3290,7 +3352,7 @@
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C51" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1">
         <v>20181</v>
@@ -3317,7 +3379,7 @@
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C52" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>21479</v>
@@ -3344,7 +3406,7 @@
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C53" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>22830</v>
@@ -3371,7 +3433,7 @@
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C54" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>24234</v>
@@ -3398,7 +3460,7 @@
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C55" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1">
         <v>25694</v>
@@ -3423,26 +3485,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C56" s="1">
-        <v>49</v>
-      </c>
-      <c r="D56" s="1">
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C56" s="2">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2">
         <v>27209</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>40814</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>54419</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <v>68024</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="2">
         <v>81628</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>27209,40814,54419,68024,81628</v>
       </c>
@@ -3450,36 +3512,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C57" s="2">
-        <v>50</v>
-      </c>
-      <c r="D57" s="2">
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1">
         <v>28781</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>43172</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>57563</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>71953</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>86344</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="I57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>28781,43172,57563,71953,86344</v>
       </c>
       <c r="J57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C58" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1">
         <v>30411</v>
@@ -3506,7 +3568,7 @@
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C59" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1">
         <v>32099</v>
@@ -3533,7 +3595,7 @@
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C60" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D60" s="1">
         <v>33846</v>
@@ -3560,7 +3622,7 @@
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C61" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1">
         <v>35654</v>
@@ -3587,7 +3649,7 @@
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C62" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>37523</v>
@@ -3614,7 +3676,7 @@
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C63" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1">
         <v>39455</v>
@@ -3641,7 +3703,7 @@
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C64" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" s="1">
         <v>41449</v>
@@ -3668,7 +3730,7 @@
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C65" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" s="1">
         <v>43508</v>
@@ -3693,26 +3755,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C66" s="1">
-        <v>59</v>
-      </c>
-      <c r="D66" s="1">
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C66" s="2">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2">
         <v>45631</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>68447</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>91262</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>114078</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>136894</v>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>45631,68447,91262,114078,136894</v>
       </c>
@@ -3720,36 +3782,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C67" s="2">
-        <v>60</v>
-      </c>
-      <c r="D67" s="2">
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C67" s="1">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
         <v>47820</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>71730</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>95640</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>119551</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>143461</v>
       </c>
-      <c r="I67" s="2" t="str">
+      <c r="I67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>47820,71730,95640,119551,143461</v>
       </c>
       <c r="J67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C68" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1">
         <v>50076</v>
@@ -3776,7 +3838,7 @@
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C69" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D69" s="1">
         <v>52399</v>
@@ -3803,7 +3865,7 @@
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C70" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1">
         <v>54791</v>
@@ -3821,7 +3883,7 @@
         <v>164373</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>D70&amp;","&amp;E70&amp;","&amp;F70&amp;","&amp;G70&amp;","&amp;H70</f>
         <v>54791,82186,109582,136978,164373</v>
       </c>
       <c r="J70" s="1">
@@ -3830,7 +3892,7 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C71" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" s="1">
         <v>57252</v>
@@ -3857,7 +3919,7 @@
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C72" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>59783</v>
@@ -3875,7 +3937,7 @@
         <v>179351</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>D72&amp;","&amp;E72&amp;","&amp;F72&amp;","&amp;G72&amp;","&amp;H72</f>
+        <f t="shared" ref="I72:I106" si="1">D72&amp;","&amp;E72&amp;","&amp;F72&amp;","&amp;G72&amp;","&amp;H72</f>
         <v>59783,89675,119567,149459,179351</v>
       </c>
       <c r="J72" s="1">
@@ -3884,7 +3946,7 @@
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C73" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1">
         <v>62386</v>
@@ -3902,16 +3964,16 @@
         <v>187158</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" ref="I73:I107" si="1">D73&amp;","&amp;E73&amp;","&amp;F73&amp;","&amp;G73&amp;","&amp;H73</f>
+        <f t="shared" si="1"/>
         <v>62386,93579,124772,155965,187158</v>
       </c>
       <c r="J73" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="74" customHeight="1" spans="3:10">
       <c r="C74" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74" s="1">
         <v>65060</v>
@@ -3938,7 +4000,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:10">
       <c r="C75" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1">
         <v>67807</v>
@@ -3963,26 +4025,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="3:10">
-      <c r="C76" s="1">
-        <v>69</v>
-      </c>
-      <c r="D76" s="1">
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C76" s="2">
+        <v>70</v>
+      </c>
+      <c r="D76" s="2">
         <v>70628</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>105942</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>141256</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="2">
         <v>176570</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="2">
         <v>211885</v>
       </c>
-      <c r="I76" s="1" t="str">
+      <c r="I76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>70628,105942,141256,176570,211885</v>
       </c>
@@ -3990,36 +4052,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C77" s="2">
-        <v>70</v>
-      </c>
-      <c r="D77" s="2">
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="1">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
         <v>73523</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>110285</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>147047</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="1">
         <v>183809</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="1">
         <v>220571</v>
       </c>
-      <c r="I77" s="2" t="str">
+      <c r="I77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>73523,110285,147047,183809,220571</v>
       </c>
-      <c r="J77" s="1">
-        <v>4</v>
+      <c r="J77" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:10">
       <c r="C78" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1">
         <v>76494</v>
@@ -4046,7 +4108,7 @@
     </row>
     <row r="79" customHeight="1" spans="3:10">
       <c r="C79" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1">
         <v>79541</v>
@@ -4073,7 +4135,7 @@
     </row>
     <row r="80" customHeight="1" spans="3:10">
       <c r="C80" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1">
         <v>82665</v>
@@ -4100,7 +4162,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:10">
       <c r="C81" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1">
         <v>85868</v>
@@ -4127,7 +4189,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:10">
       <c r="C82" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D82" s="1">
         <v>89149</v>
@@ -4154,7 +4216,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:10">
       <c r="C83" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D83" s="1">
         <v>92509</v>
@@ -4181,7 +4243,7 @@
     </row>
     <row r="84" customHeight="1" spans="3:10">
       <c r="C84" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D84" s="1">
         <v>95951</v>
@@ -4208,7 +4270,7 @@
     </row>
     <row r="85" customHeight="1" spans="3:10">
       <c r="C85" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D85" s="1">
         <v>99473</v>
@@ -4233,26 +4295,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="3:10">
-      <c r="C86" s="1">
-        <v>79</v>
-      </c>
-      <c r="D86" s="1">
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C86" s="2">
+        <v>80</v>
+      </c>
+      <c r="D86" s="2">
         <v>103078</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>154618</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>206157</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="2">
         <v>257696</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="2">
         <v>309236</v>
       </c>
-      <c r="I86" s="1" t="str">
+      <c r="I86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>103078,154618,206157,257696,309236</v>
       </c>
@@ -4260,36 +4322,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C87" s="2">
-        <v>80</v>
-      </c>
-      <c r="D87" s="2">
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="1">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1">
         <v>106766</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>160150</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>213533</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="1">
         <v>266917</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>320300</v>
       </c>
-      <c r="I87" s="2" t="str">
+      <c r="I87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>106766,160150,213533,266917,320300</v>
       </c>
       <c r="J87" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:10">
       <c r="C88" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D88" s="1">
         <v>110538</v>
@@ -4316,7 +4378,7 @@
     </row>
     <row r="89" customHeight="1" spans="3:10">
       <c r="C89" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D89" s="1">
         <v>114395</v>
@@ -4343,7 +4405,7 @@
     </row>
     <row r="90" customHeight="1" spans="3:10">
       <c r="C90" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D90" s="1">
         <v>118337</v>
@@ -4370,7 +4432,7 @@
     </row>
     <row r="91" customHeight="1" spans="3:10">
       <c r="C91" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1">
         <v>122366</v>
@@ -4397,7 +4459,7 @@
     </row>
     <row r="92" customHeight="1" spans="3:10">
       <c r="C92" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D92" s="1">
         <v>126482</v>
@@ -4424,7 +4486,7 @@
     </row>
     <row r="93" customHeight="1" spans="3:10">
       <c r="C93" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D93" s="1">
         <v>130686</v>
@@ -4451,7 +4513,7 @@
     </row>
     <row r="94" customHeight="1" spans="3:10">
       <c r="C94" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D94" s="1">
         <v>134979</v>
@@ -4478,7 +4540,7 @@
     </row>
     <row r="95" customHeight="1" spans="3:10">
       <c r="C95" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1">
         <v>139362</v>
@@ -4503,26 +4565,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="3:10">
-      <c r="C96" s="1">
-        <v>89</v>
-      </c>
-      <c r="D96" s="1">
+    <row r="96" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C96" s="2">
+        <v>90</v>
+      </c>
+      <c r="D96" s="2">
         <v>143835</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>215753</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>287671</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="2">
         <v>359588</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="2">
         <v>431506</v>
       </c>
-      <c r="I96" s="1" t="str">
+      <c r="I96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>143835,215753,287671,359588,431506</v>
       </c>
@@ -4530,36 +4592,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C97" s="2">
-        <v>90</v>
-      </c>
-      <c r="D97" s="2">
+    <row r="97" customHeight="1" spans="3:10">
+      <c r="C97" s="1">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
         <v>148400</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>222600</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>296800</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="1">
         <v>371000</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>445200</v>
       </c>
-      <c r="I97" s="2" t="str">
+      <c r="I97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>148400,222600,296800,371000,445200</v>
       </c>
       <c r="J97" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="3:10">
       <c r="C98" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D98" s="1">
         <v>153057</v>
@@ -4586,7 +4648,7 @@
     </row>
     <row r="99" customHeight="1" spans="3:10">
       <c r="C99" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99" s="1">
         <v>157807</v>
@@ -4613,7 +4675,7 @@
     </row>
     <row r="100" customHeight="1" spans="3:10">
       <c r="C100" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D100" s="1">
         <v>162650</v>
@@ -4640,7 +4702,7 @@
     </row>
     <row r="101" customHeight="1" spans="3:10">
       <c r="C101" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D101" s="1">
         <v>167589</v>
@@ -4667,7 +4729,7 @@
     </row>
     <row r="102" customHeight="1" spans="3:10">
       <c r="C102" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D102" s="1">
         <v>172623</v>
@@ -4694,7 +4756,7 @@
     </row>
     <row r="103" customHeight="1" spans="3:10">
       <c r="C103" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" s="1">
         <v>177753</v>
@@ -4721,7 +4783,7 @@
     </row>
     <row r="104" customHeight="1" spans="3:10">
       <c r="C104" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D104" s="1">
         <v>182980</v>
@@ -4748,7 +4810,7 @@
     </row>
     <row r="105" customHeight="1" spans="3:10">
       <c r="C105" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" s="1">
         <v>188306</v>
@@ -4775,7 +4837,7 @@
     </row>
     <row r="106" customHeight="1" spans="3:10">
       <c r="C106" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" s="1">
         <v>193730</v>
@@ -4797,33 +4859,6 @@
         <v>193730,290595,387460,484325,581190</v>
       </c>
       <c r="J106" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="3:10">
-      <c r="C107" s="1">
-        <v>100</v>
-      </c>
-      <c r="D107" s="1">
-        <v>199253</v>
-      </c>
-      <c r="E107" s="1">
-        <v>298880</v>
-      </c>
-      <c r="F107" s="1">
-        <v>398507</v>
-      </c>
-      <c r="G107" s="1">
-        <v>498133</v>
-      </c>
-      <c r="H107" s="1">
-        <v>597760</v>
-      </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>199253,298880,398507,498133,597760</v>
-      </c>
-      <c r="J107" s="3">
         <v>7</v>
       </c>
     </row>
@@ -4833,5 +4868,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>